--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_yyn_gen_pf_sc_results_0_bus_ward4714_inductance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_yyn_gen_pf_sc_results_0_bus_ward4714_inductance.xlsx
@@ -1109,34 +1109,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50.00000283507351</v>
+        <v>50.00000283507352</v>
       </c>
       <c r="D2">
-        <v>50.00000283507351</v>
+        <v>50.00000283507352</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.6751509631174</v>
+        <v>288.6751509631175</v>
       </c>
       <c r="G2">
-        <v>288.6751509631174</v>
+        <v>288.6751509631175</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219823</v>
+        <v>0.01094540887219822</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -1151,7 +1151,7 @@
         <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.693395120032067E-11</v>
+        <v>-8.692658238386719E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1207,16 +1207,16 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279821172764</v>
+        <v>0.9526279821172766</v>
       </c>
       <c r="Q3">
-        <v>8.709505441346354E-08</v>
+        <v>8.709496025311912E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999128962</v>
+        <v>179.9999999128961</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279330777262</v>
+        <v>0.9526279330777252</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279964860253</v>
+        <v>0.9526279964860255</v>
       </c>
       <c r="Q4">
-        <v>5.191990874370883E-07</v>
+        <v>5.191988701751497E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1319,22 +1319,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279361027253</v>
+        <v>0.9526279361027251</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279934610253</v>
+        <v>0.9526279934610262</v>
       </c>
       <c r="Q5">
-        <v>4.282297024653554E-07</v>
+        <v>4.282296051967828E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999995717615</v>
+        <v>179.9999995717614</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279315652249</v>
+        <v>0.9526279315652242</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279979985249</v>
+        <v>0.9526279979985262</v>
       </c>
       <c r="Q6">
-        <v>5.646835709409051E-07</v>
+        <v>5.646834669555754E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1437,16 +1437,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.952627927783974</v>
+        <v>0.9526279277839736</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280017797747</v>
+        <v>0.9526280017797761</v>
       </c>
       <c r="Q7">
-        <v>6.78395101623223E-07</v>
+        <v>6.783950148323263E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279270277241</v>
+        <v>0.9526279270277234</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280025360245</v>
+        <v>0.9526280025360261</v>
       </c>
       <c r="Q8">
-        <v>7.011374052225951E-07</v>
+        <v>7.011373236614642E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1555,16 +1555,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279255152237</v>
+        <v>0.9526279255152231</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280040485245</v>
+        <v>0.952628004048526</v>
       </c>
       <c r="Q9">
-        <v>7.466220324092873E-07</v>
+        <v>7.466219417631113E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1614,16 +1614,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279240027234</v>
+        <v>0.9526279240027229</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280055610246</v>
+        <v>0.952628005561026</v>
       </c>
       <c r="Q10">
-        <v>7.921066425400759E-07</v>
+        <v>7.921065518938625E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1673,16 +1673,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279232464732</v>
+        <v>0.9526279232464728</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280063172746</v>
+        <v>0.9526280063172762</v>
       </c>
       <c r="Q11">
-        <v>8.148489508973638E-07</v>
+        <v>8.148488602511365E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1732,16 +1732,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279451777269</v>
+        <v>0.9526279451777265</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279843860267</v>
+        <v>0.9526279843860268</v>
       </c>
       <c r="Q12">
-        <v>1.553219954551154E-07</v>
+        <v>1.55321870914821E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1791,22 +1791,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9526279451777268</v>
+        <v>0.9526279451777269</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279843860266</v>
+        <v>0.9526279843860268</v>
       </c>
       <c r="Q13">
-        <v>1.553219745423646E-07</v>
+        <v>1.553218726715341E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.9999998446693</v>
+        <v>179.9999998446692</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1850,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9526279429089768</v>
+        <v>0.9526279429089765</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279866547759</v>
+        <v>0.9526279866547762</v>
       </c>
       <c r="Q14">
-        <v>2.235489528143363E-07</v>
+        <v>2.235488031315258E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999997764423</v>
+        <v>179.9999997764422</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1915,16 +1915,16 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9526279881672758</v>
+        <v>0.9526279881672763</v>
       </c>
       <c r="Q15">
-        <v>2.690335289553379E-07</v>
+        <v>2.690334392596935E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999997309577</v>
+        <v>179.9999997309576</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9526279459339769</v>
+        <v>0.9526279459339768</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1977,13 +1977,13 @@
         <v>0.9526279836297766</v>
       </c>
       <c r="Q16">
-        <v>1.325796842897501E-07</v>
+        <v>1.325795636046869E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>179.9999998674116</v>
+        <v>179.9999998674115</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2027,22 +2027,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9526279459339769</v>
+        <v>0.952627945933977</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279836297766</v>
+        <v>0.9526279836297767</v>
       </c>
       <c r="Q17">
-        <v>1.325796672322171E-07</v>
+        <v>1.325795653614E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>179.9999998674116</v>
+        <v>179.9999998674115</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279391277264</v>
+        <v>0.9526279391277257</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279904360254</v>
+        <v>0.9526279904360259</v>
       </c>
       <c r="Q18">
-        <v>3.372605478045607E-07</v>
+        <v>3.372603661064862E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999996627307</v>
+        <v>179.9999996627306</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2145,16 +2145,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279361027263</v>
+        <v>0.9526279361027253</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279934610253</v>
+        <v>0.9526279934610254</v>
       </c>
       <c r="Q19">
-        <v>4.282298304500687E-07</v>
+        <v>4.282296208429548E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279338339764</v>
+        <v>0.9526279338339753</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0.9526279957297753</v>
       </c>
       <c r="Q20">
-        <v>4.964567813197532E-07</v>
+        <v>4.964565681563248E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2263,16 +2263,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279330777262</v>
+        <v>0.9526279330777252</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279964860253</v>
+        <v>0.9526279964860255</v>
       </c>
       <c r="Q21">
-        <v>5.191990874370883E-07</v>
+        <v>5.191988742736466E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2385,10 +2385,10 @@
         <v>0.01094540889714034</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646416</v>
+        <v>0.01094540889646415</v>
       </c>
       <c r="M2">
         <v>0.1094540870674506</v>
@@ -2462,7 +2462,7 @@
         <v>1.084507397579257</v>
       </c>
       <c r="Q3">
-        <v>29.14059841519043</v>
+        <v>29.14059841519042</v>
       </c>
       <c r="R3">
         <v>-91.10214742097257</v>
@@ -2760,7 +2760,7 @@
         <v>29.14059842603803</v>
       </c>
       <c r="R8">
-        <v>-91.10214734879825</v>
+        <v>-91.10214734879824</v>
       </c>
       <c r="S8">
         <v>150.3279626386016</v>
@@ -2816,7 +2816,7 @@
         <v>1.08450739813885</v>
       </c>
       <c r="Q9">
-        <v>29.14059842684155</v>
+        <v>29.14059842684156</v>
       </c>
       <c r="R9">
         <v>-91.102147343452</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.102503198735491</v>
+        <v>1.10250319873549</v>
       </c>
       <c r="O10">
         <v>1.07393623763207</v>
@@ -2996,7 +2996,7 @@
         <v>29.14059841639571</v>
       </c>
       <c r="R12">
-        <v>-91.10214741295322</v>
+        <v>-91.1021474129532</v>
       </c>
       <c r="S12">
         <v>150.3279626171115</v>
@@ -3111,7 +3111,7 @@
         <v>1.084507397695035</v>
       </c>
       <c r="Q14">
-        <v>29.14059841760101</v>
+        <v>29.140598417601</v>
       </c>
       <c r="R14">
         <v>-91.10214740493385</v>
@@ -3170,7 +3170,7 @@
         <v>1.084507397733627</v>
       </c>
       <c r="Q15">
-        <v>29.14059841840453</v>
+        <v>29.14059841840454</v>
       </c>
       <c r="R15">
         <v>-91.10214739958759</v>
@@ -3400,7 +3400,7 @@
         <v>1.102503199127358</v>
       </c>
       <c r="O19">
-        <v>1.073936237813093</v>
+        <v>1.073936237813092</v>
       </c>
       <c r="P19">
         <v>1.084507397868702</v>
@@ -3628,19 +3628,19 @@
         <v>8.768652669144455</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219823</v>
+        <v>0.01094540887219822</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -3767,7 +3767,7 @@
         <v>1.102503199005441</v>
       </c>
       <c r="O4">
-        <v>1.073936237740625</v>
+        <v>1.073936237740624</v>
       </c>
       <c r="P4">
         <v>1.084507397956761</v>
@@ -3835,7 +3835,7 @@
         <v>29.14059842112402</v>
       </c>
       <c r="R5">
-        <v>-91.10214737876404</v>
+        <v>-91.10214737876403</v>
       </c>
       <c r="S5">
         <v>150.3279626289879</v>
@@ -3891,7 +3891,7 @@
         <v>1.084507397995353</v>
       </c>
       <c r="Q6">
-        <v>29.1405984235346</v>
+        <v>29.14059842353459</v>
       </c>
       <c r="R6">
         <v>-91.10214736272529</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.102503198809508</v>
+        <v>1.102503198809507</v>
       </c>
       <c r="O8">
         <v>1.073936237650113</v>
@@ -4068,7 +4068,7 @@
         <v>1.084507398149724</v>
       </c>
       <c r="Q9">
-        <v>29.1405984267487</v>
+        <v>29.14059842674871</v>
       </c>
       <c r="R9">
         <v>-91.10214734134031</v>
@@ -4360,7 +4360,7 @@
         <v>1.073936237887705</v>
       </c>
       <c r="P14">
-        <v>1.084507397705908</v>
+        <v>1.084507397705909</v>
       </c>
       <c r="Q14">
         <v>29.14059841750815</v>
@@ -4481,7 +4481,7 @@
         <v>1.084507397628723</v>
       </c>
       <c r="Q16">
-        <v>29.14059841590111</v>
+        <v>29.14059841590109</v>
       </c>
       <c r="R16">
         <v>-91.10214741351464</v>
@@ -4540,7 +4540,7 @@
         <v>1.084507397628723</v>
       </c>
       <c r="Q17">
-        <v>29.1405984159011</v>
+        <v>29.14059841590109</v>
       </c>
       <c r="R17">
         <v>-91.10214741351464</v>
@@ -4658,10 +4658,10 @@
         <v>1.084507397879575</v>
       </c>
       <c r="Q19">
-        <v>29.14059842112403</v>
+        <v>29.14059842112402</v>
       </c>
       <c r="R19">
-        <v>-91.10214737876404</v>
+        <v>-91.10214737876403</v>
       </c>
       <c r="S19">
         <v>150.3279626289879</v>
@@ -4770,7 +4770,7 @@
         <v>1.102503199005441</v>
       </c>
       <c r="O21">
-        <v>1.073936237740625</v>
+        <v>1.073936237740624</v>
       </c>
       <c r="P21">
         <v>1.084507397956761</v>
@@ -4865,19 +4865,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.000001402118</v>
+        <v>40.00000140211802</v>
       </c>
       <c r="D2">
-        <v>40.000001402118</v>
+        <v>40.00000140211802</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709824</v>
+        <v>230.9401157709825</v>
       </c>
       <c r="G2">
-        <v>230.9401157709824</v>
+        <v>230.9401157709825</v>
       </c>
       <c r="H2">
         <v>0.01243796462778101</v>
@@ -4892,7 +4892,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -4904,16 +4904,16 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037849896</v>
+        <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720172204747969E-10</v>
+        <v>1.720003166521078E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999998193</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4957,16 +4957,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.866025388164028</v>
+        <v>0.8660253881640279</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054645</v>
+        <v>0.8660254194054651</v>
       </c>
       <c r="Q3">
-        <v>8.659296223926042E-08</v>
+        <v>8.65929723867308E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015302</v>
+        <v>0.86602537510153</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         <v>0.8660254324679615</v>
       </c>
       <c r="Q4">
-        <v>9.162327423810544E-07</v>
+        <v>9.162328291671014E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -5081,16 +5081,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179618</v>
+        <v>0.8660254297179623</v>
       </c>
       <c r="Q5">
-        <v>7.415718441938306E-07</v>
+        <v>7.415718577774081E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584198</v>
+        <v>179.9999992584196</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5140,16 +5140,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429606</v>
+        <v>0.8660254338429608</v>
       </c>
       <c r="Q6">
-        <v>1.003563390030877E-06</v>
+        <v>1.003563413584004E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999989964283</v>
+        <v>179.9999989964282</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -5193,22 +5193,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890319</v>
+        <v>0.8660253702890316</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804596</v>
+        <v>0.8660254372804599</v>
       </c>
       <c r="Q7">
-        <v>1.221889674684557E-06</v>
+        <v>1.221889703975122E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781021</v>
+        <v>179.9999987781019</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -5252,22 +5252,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015319</v>
+        <v>0.8660253696015316</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679593</v>
+        <v>0.8660254379679596</v>
       </c>
       <c r="Q8">
-        <v>1.265554944833726E-06</v>
+        <v>1.26555496703277E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999987344368</v>
+        <v>179.9999987344367</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -5311,22 +5311,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265321</v>
+        <v>0.866025368226532</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429591</v>
+        <v>0.8660254393429595</v>
       </c>
       <c r="Q9">
-        <v>1.352885452148768E-06</v>
+        <v>1.352885477198454E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999986471063</v>
+        <v>179.9999986471062</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -5370,22 +5370,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515324</v>
+        <v>0.8660253668515322</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179589</v>
+        <v>0.8660254407179592</v>
       </c>
       <c r="Q10">
-        <v>1.440215971631803E-06</v>
+        <v>1.440215996681406E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999985597758</v>
+        <v>179.9999985597757</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -5429,22 +5429,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640326</v>
+        <v>0.8660253661640324</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054588</v>
+        <v>0.8660254414054591</v>
       </c>
       <c r="Q11">
-        <v>1.483881228101202E-06</v>
+        <v>1.483881248910038E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161106</v>
+        <v>179.9999985161104</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -5488,16 +5488,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015281</v>
+        <v>0.866025386101528</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679641</v>
+        <v>0.8660254214679646</v>
       </c>
       <c r="Q12">
-        <v>2.175887383307079E-07</v>
+        <v>2.175887548678646E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -5547,16 +5547,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015281</v>
+        <v>0.866025386101528</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679642</v>
+        <v>0.8660254214679647</v>
       </c>
       <c r="Q13">
-        <v>2.175887366606355E-07</v>
+        <v>2.175887468079933E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -5606,16 +5606,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390285</v>
+        <v>0.8660253840390283</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304636</v>
+        <v>0.866025423530464</v>
       </c>
       <c r="Q14">
-        <v>3.485844804580637E-07</v>
+        <v>3.485845175485851E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -5665,22 +5665,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.866025382664029</v>
+        <v>0.8660253826640287</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054631</v>
+        <v>0.8660254249054634</v>
       </c>
       <c r="Q15">
-        <v>4.359150280127745E-07</v>
+        <v>4.359150445989618E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999995640765</v>
+        <v>179.9999995640764</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -5724,16 +5724,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890281</v>
+        <v>0.8660253867890279</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804643</v>
+        <v>0.8660254207804647</v>
       </c>
       <c r="Q16">
-        <v>1.739234838718169E-07</v>
+        <v>1.739234961682628E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5783,16 +5783,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890281</v>
+        <v>0.866025386789028</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.866025420780465</v>
       </c>
       <c r="Q17">
-        <v>1.73923477961005E-07</v>
+        <v>1.739234881083916E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -5842,16 +5842,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015291</v>
+        <v>0.8660253806015288</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679627</v>
+        <v>0.8660254269679631</v>
       </c>
       <c r="Q18">
-        <v>5.66910735051156E-07</v>
+        <v>5.669107967612784E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -5901,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515297</v>
+        <v>0.8660253778515293</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -5910,13 +5910,13 @@
         <v>0.8660254297179623</v>
       </c>
       <c r="Q19">
-        <v>7.415717421920364E-07</v>
+        <v>7.415718095692779E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584197</v>
+        <v>179.9999992584196</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.86602537578903</v>
+        <v>0.8660253757890297</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -5969,13 +5969,13 @@
         <v>0.8660254317804614</v>
       </c>
       <c r="Q20">
-        <v>8.725674909668817E-07</v>
+        <v>8.725675731679448E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.999999127424</v>
+        <v>179.9999991274239</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015302</v>
+        <v>0.8660253751015299</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0.8660254324679615</v>
       </c>
       <c r="Q21">
-        <v>9.162327423810544E-07</v>
+        <v>9.162328203413491E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -6117,19 +6117,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.000001402118</v>
+        <v>40.00000140211802</v>
       </c>
       <c r="D2">
-        <v>40.000001402118</v>
+        <v>40.00000140211802</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709824</v>
+        <v>230.9401157709825</v>
       </c>
       <c r="G2">
-        <v>230.9401157709824</v>
+        <v>230.9401157709825</v>
       </c>
       <c r="H2">
         <v>0.01243796462778101</v>
@@ -6144,7 +6144,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -6156,16 +6156,16 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037849896</v>
+        <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720172204747969E-10</v>
+        <v>1.720003166521078E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999998193</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6209,16 +6209,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.866025388164028</v>
+        <v>0.8660253881640279</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054645</v>
+        <v>0.8660254194054651</v>
       </c>
       <c r="Q3">
-        <v>8.659296223926042E-08</v>
+        <v>8.65929723867308E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015302</v>
+        <v>0.86602537510153</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -6277,7 +6277,7 @@
         <v>0.8660254324679615</v>
       </c>
       <c r="Q4">
-        <v>9.162327423810544E-07</v>
+        <v>9.162328291671014E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -6333,16 +6333,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179618</v>
+        <v>0.8660254297179623</v>
       </c>
       <c r="Q5">
-        <v>7.415718441938306E-07</v>
+        <v>7.415718577774081E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584198</v>
+        <v>179.9999992584196</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6392,16 +6392,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429606</v>
+        <v>0.8660254338429608</v>
       </c>
       <c r="Q6">
-        <v>1.003563390030877E-06</v>
+        <v>1.003563413584004E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999989964283</v>
+        <v>179.9999989964282</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -6445,22 +6445,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890319</v>
+        <v>0.8660253702890316</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804596</v>
+        <v>0.8660254372804599</v>
       </c>
       <c r="Q7">
-        <v>1.221889674684557E-06</v>
+        <v>1.221889703975122E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781021</v>
+        <v>179.9999987781019</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -6504,22 +6504,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015319</v>
+        <v>0.8660253696015316</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679593</v>
+        <v>0.8660254379679596</v>
       </c>
       <c r="Q8">
-        <v>1.265554944833726E-06</v>
+        <v>1.26555496703277E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999987344368</v>
+        <v>179.9999987344367</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6563,22 +6563,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265321</v>
+        <v>0.866025368226532</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429591</v>
+        <v>0.8660254393429595</v>
       </c>
       <c r="Q9">
-        <v>1.352885452148768E-06</v>
+        <v>1.352885477198454E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999986471063</v>
+        <v>179.9999986471062</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6622,22 +6622,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515324</v>
+        <v>0.8660253668515322</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179589</v>
+        <v>0.8660254407179592</v>
       </c>
       <c r="Q10">
-        <v>1.440215971631803E-06</v>
+        <v>1.440215996681406E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999985597758</v>
+        <v>179.9999985597757</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6681,22 +6681,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640326</v>
+        <v>0.8660253661640324</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054588</v>
+        <v>0.8660254414054591</v>
       </c>
       <c r="Q11">
-        <v>1.483881228101202E-06</v>
+        <v>1.483881248910038E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161106</v>
+        <v>179.9999985161104</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6740,16 +6740,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015281</v>
+        <v>0.866025386101528</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679641</v>
+        <v>0.8660254214679646</v>
       </c>
       <c r="Q12">
-        <v>2.175887383307079E-07</v>
+        <v>2.175887548678646E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -6799,16 +6799,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015281</v>
+        <v>0.866025386101528</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679642</v>
+        <v>0.8660254214679647</v>
       </c>
       <c r="Q13">
-        <v>2.175887366606355E-07</v>
+        <v>2.175887468079933E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -6858,16 +6858,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390285</v>
+        <v>0.8660253840390283</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304636</v>
+        <v>0.866025423530464</v>
       </c>
       <c r="Q14">
-        <v>3.485844804580637E-07</v>
+        <v>3.485845175485851E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -6917,22 +6917,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.866025382664029</v>
+        <v>0.8660253826640287</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054631</v>
+        <v>0.8660254249054634</v>
       </c>
       <c r="Q15">
-        <v>4.359150280127745E-07</v>
+        <v>4.359150445989618E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999995640765</v>
+        <v>179.9999995640764</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6976,16 +6976,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890281</v>
+        <v>0.8660253867890279</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804643</v>
+        <v>0.8660254207804647</v>
       </c>
       <c r="Q16">
-        <v>1.739234838718169E-07</v>
+        <v>1.739234961682628E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -7035,16 +7035,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890281</v>
+        <v>0.866025386789028</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.866025420780465</v>
       </c>
       <c r="Q17">
-        <v>1.73923477961005E-07</v>
+        <v>1.739234881083916E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -7094,16 +7094,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015291</v>
+        <v>0.8660253806015288</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679627</v>
+        <v>0.8660254269679631</v>
       </c>
       <c r="Q18">
-        <v>5.66910735051156E-07</v>
+        <v>5.669107967612784E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515297</v>
+        <v>0.8660253778515293</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -7162,13 +7162,13 @@
         <v>0.8660254297179623</v>
       </c>
       <c r="Q19">
-        <v>7.415717421920364E-07</v>
+        <v>7.415718095692779E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584197</v>
+        <v>179.9999992584196</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -7212,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.86602537578903</v>
+        <v>0.8660253757890297</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -7221,13 +7221,13 @@
         <v>0.8660254317804614</v>
       </c>
       <c r="Q20">
-        <v>8.725674909668817E-07</v>
+        <v>8.725675731679448E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.999999127424</v>
+        <v>179.9999991274239</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015302</v>
+        <v>0.8660253751015299</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -7280,7 +7280,7 @@
         <v>0.8660254324679615</v>
       </c>
       <c r="Q21">
-        <v>9.162327423810544E-07</v>
+        <v>9.162328203413491E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -7467,7 +7467,7 @@
         <v>0.9731342571702207</v>
       </c>
       <c r="P3">
-        <v>0.9840663098081651</v>
+        <v>0.9840663098081649</v>
       </c>
       <c r="Q3">
         <v>29.02648251593023</v>
@@ -7526,13 +7526,13 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P4">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q4">
-        <v>29.02648253625838</v>
+        <v>29.02648253625839</v>
       </c>
       <c r="R4">
-        <v>-91.2483935866167</v>
+        <v>-91.24839358661669</v>
       </c>
       <c r="S4">
         <v>150.3745453009498</v>
@@ -7585,10 +7585,10 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P5">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q5">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R5">
         <v>-91.24839360201264</v>
@@ -7641,7 +7641,7 @@
         <v>1.002551065038351</v>
       </c>
       <c r="O6">
-        <v>0.9731342572792639</v>
+        <v>0.9731342572792642</v>
       </c>
       <c r="P6">
         <v>0.9840663104380105</v>
@@ -7703,10 +7703,10 @@
         <v>0.9731342573052266</v>
       </c>
       <c r="P7">
-        <v>0.9840663105879737</v>
+        <v>0.9840663105879738</v>
       </c>
       <c r="Q7">
-        <v>29.0264825437477</v>
+        <v>29.02648254374771</v>
       </c>
       <c r="R7">
         <v>-91.24839355967381</v>
@@ -7818,10 +7818,10 @@
         <v>1.002551064822994</v>
       </c>
       <c r="O9">
-        <v>0.9731342573208043</v>
+        <v>0.9731342573208044</v>
       </c>
       <c r="P9">
-        <v>0.9840663106779516</v>
+        <v>0.9840663106779517</v>
       </c>
       <c r="Q9">
         <v>29.02648254695741</v>
@@ -7936,7 +7936,7 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363818</v>
+        <v>0.9731342573363821</v>
       </c>
       <c r="P11">
         <v>0.9840663107679295</v>
@@ -8113,13 +8113,13 @@
         <v>1.002551065442144</v>
       </c>
       <c r="O14">
-        <v>0.9731342572013758</v>
+        <v>0.9731342572013759</v>
       </c>
       <c r="P14">
         <v>0.9840663099881208</v>
       </c>
       <c r="Q14">
-        <v>29.02648252234964</v>
+        <v>29.02648252234965</v>
       </c>
       <c r="R14">
         <v>-91.24839363665349</v>
@@ -8237,7 +8237,7 @@
         <v>0.9840663098681504</v>
       </c>
       <c r="Q16">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R16">
         <v>-91.24839365204943</v>
@@ -8290,16 +8290,16 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O17">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P17">
         <v>0.9840663098681504</v>
       </c>
       <c r="Q17">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S17">
         <v>150.3745452878344</v>
@@ -8411,7 +8411,7 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P19">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q19">
         <v>29.02648253197877</v>
@@ -8467,7 +8467,7 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636864</v>
       </c>
       <c r="P20">
         <v>0.9840663103480326</v>
@@ -8529,13 +8529,13 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P21">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q21">
-        <v>29.02648253625838</v>
+        <v>29.02648253625839</v>
       </c>
       <c r="R21">
-        <v>-91.2483935866167</v>
+        <v>-91.24839358661669</v>
       </c>
       <c r="S21">
         <v>150.3745453009498</v>
@@ -8648,7 +8648,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -8719,7 +8719,7 @@
         <v>0.9731342571702207</v>
       </c>
       <c r="P3">
-        <v>0.9840663098081651</v>
+        <v>0.9840663098081649</v>
       </c>
       <c r="Q3">
         <v>29.02648251593023</v>
@@ -8778,13 +8778,13 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P4">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q4">
-        <v>29.02648253625838</v>
+        <v>29.02648253625839</v>
       </c>
       <c r="R4">
-        <v>-91.2483935866167</v>
+        <v>-91.24839358661669</v>
       </c>
       <c r="S4">
         <v>150.3745453009498</v>
@@ -8837,10 +8837,10 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P5">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q5">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R5">
         <v>-91.24839360201264</v>
@@ -8893,7 +8893,7 @@
         <v>1.002551065038351</v>
       </c>
       <c r="O6">
-        <v>0.9731342572792639</v>
+        <v>0.9731342572792642</v>
       </c>
       <c r="P6">
         <v>0.9840663104380105</v>
@@ -8955,10 +8955,10 @@
         <v>0.9731342573052266</v>
       </c>
       <c r="P7">
-        <v>0.9840663105879737</v>
+        <v>0.9840663105879738</v>
       </c>
       <c r="Q7">
-        <v>29.0264825437477</v>
+        <v>29.02648254374771</v>
       </c>
       <c r="R7">
         <v>-91.24839355967381</v>
@@ -9070,10 +9070,10 @@
         <v>1.002551064822994</v>
       </c>
       <c r="O9">
-        <v>0.9731342573208043</v>
+        <v>0.9731342573208044</v>
       </c>
       <c r="P9">
-        <v>0.9840663106779516</v>
+        <v>0.9840663106779517</v>
       </c>
       <c r="Q9">
         <v>29.02648254695741</v>
@@ -9188,7 +9188,7 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363818</v>
+        <v>0.9731342573363821</v>
       </c>
       <c r="P11">
         <v>0.9840663107679295</v>
@@ -9365,13 +9365,13 @@
         <v>1.002551065442144</v>
       </c>
       <c r="O14">
-        <v>0.9731342572013758</v>
+        <v>0.9731342572013759</v>
       </c>
       <c r="P14">
         <v>0.9840663099881208</v>
       </c>
       <c r="Q14">
-        <v>29.02648252234964</v>
+        <v>29.02648252234965</v>
       </c>
       <c r="R14">
         <v>-91.24839363665349</v>
@@ -9489,7 +9489,7 @@
         <v>0.9840663098681504</v>
       </c>
       <c r="Q16">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R16">
         <v>-91.24839365204943</v>
@@ -9542,16 +9542,16 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O17">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P17">
         <v>0.9840663098681504</v>
       </c>
       <c r="Q17">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S17">
         <v>150.3745452878344</v>
@@ -9663,7 +9663,7 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P19">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q19">
         <v>29.02648253197877</v>
@@ -9719,7 +9719,7 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636864</v>
       </c>
       <c r="P20">
         <v>0.9840663103480326</v>
@@ -9781,13 +9781,13 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P21">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q21">
-        <v>29.02648253625838</v>
+        <v>29.02648253625839</v>
       </c>
       <c r="R21">
-        <v>-91.2483935866167</v>
+        <v>-91.24839358661669</v>
       </c>
       <c r="S21">
         <v>150.3745453009498</v>
@@ -9909,7 +9909,7 @@
         <v>0.1094540870674483</v>
       </c>
       <c r="N2">
-        <v>0.6350853099664723</v>
+        <v>0.6350853099664721</v>
       </c>
       <c r="O2">
         <v>1.100000023884843</v>
@@ -9918,7 +9918,7 @@
         <v>0.635085309858575</v>
       </c>
       <c r="Q2">
-        <v>60.00000000061767</v>
+        <v>60.00000000061768</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -9971,22 +9971,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853273112945</v>
+        <v>0.6350853273112936</v>
       </c>
       <c r="O3">
         <v>1.100000023884844</v>
       </c>
       <c r="P3">
-        <v>0.6350852941114504</v>
+        <v>0.6350852941114494</v>
       </c>
       <c r="Q3">
-        <v>60.00000073762055</v>
+        <v>60.0000007376207</v>
       </c>
       <c r="R3">
         <v>-89.99999999999574</v>
       </c>
       <c r="S3">
-        <v>120.0000009916561</v>
+        <v>120.0000009916559</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -10033,22 +10033,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853458279452</v>
+        <v>0.6350853458279442</v>
       </c>
       <c r="O4">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P4">
-        <v>0.635085283890604</v>
+        <v>0.6350852838906015</v>
       </c>
       <c r="Q4">
-        <v>60.00000083789035</v>
+        <v>60.00000083789082</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S4">
-        <v>120.0000023882382</v>
+        <v>120.000002388238</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -10095,22 +10095,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.635085341929702</v>
+        <v>0.6350853419297011</v>
       </c>
       <c r="O5">
         <v>1.100000023884845</v>
       </c>
       <c r="P5">
-        <v>0.6350852860423606</v>
+        <v>0.6350852860423584</v>
       </c>
       <c r="Q5">
-        <v>60.00000081678123</v>
+        <v>60.00000081678146</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S5">
-        <v>120.0000020942209</v>
+        <v>120.0000020942207</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -10157,22 +10157,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.635085347777065</v>
+        <v>0.6350853477770642</v>
       </c>
       <c r="O6">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P6">
-        <v>0.6350852828147243</v>
+        <v>0.6350852828147218</v>
       </c>
       <c r="Q6">
-        <v>60.00000084844554</v>
+        <v>60.00000084844579</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999562</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S6">
-        <v>120.0000025352468</v>
+        <v>120.0000025352466</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10219,22 +10219,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350853526498674</v>
+        <v>0.6350853526498665</v>
       </c>
       <c r="O7">
         <v>1.100000023884846</v>
       </c>
       <c r="P7">
-        <v>0.6350852801250274</v>
+        <v>0.6350852801250245</v>
       </c>
       <c r="Q7">
-        <v>60.00000087483246</v>
+        <v>60.00000087483275</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999562</v>
       </c>
       <c r="S7">
-        <v>120.0000029027684</v>
+        <v>120.0000029027681</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -10281,22 +10281,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350853536244278</v>
+        <v>0.6350853536244271</v>
       </c>
       <c r="O8">
         <v>1.100000023884846</v>
       </c>
       <c r="P8">
-        <v>0.635085279587088</v>
+        <v>0.6350852795870848</v>
       </c>
       <c r="Q8">
-        <v>60.00000088010988</v>
+        <v>60.00000088011014</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999562</v>
       </c>
       <c r="S8">
-        <v>120.0000029762727</v>
+        <v>120.0000029762724</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -10343,22 +10343,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853555735486</v>
+        <v>0.6350853555735478</v>
       </c>
       <c r="O9">
         <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350852785112094</v>
+        <v>0.6350852785112066</v>
       </c>
       <c r="Q9">
-        <v>60.00000089066462</v>
+        <v>60.00000089066491</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999559</v>
       </c>
       <c r="S9">
-        <v>120.0000031232813</v>
+        <v>120.0000031232811</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -10405,22 +10405,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350853575226695</v>
+        <v>0.6350853575226686</v>
       </c>
       <c r="O10">
         <v>1.100000023884846</v>
       </c>
       <c r="P10">
-        <v>0.6350852774353306</v>
+        <v>0.6350852774353277</v>
       </c>
       <c r="Q10">
-        <v>60.00000090121939</v>
+        <v>60.00000090121969</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999557</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S10">
-        <v>120.00000327029</v>
+        <v>120.0000032702897</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -10467,22 +10467,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853584972299</v>
+        <v>0.635085358497229</v>
       </c>
       <c r="O11">
         <v>1.100000023884846</v>
       </c>
       <c r="P11">
-        <v>0.6350852768973911</v>
+        <v>0.6350852768973881</v>
       </c>
       <c r="Q11">
-        <v>60.00000090649679</v>
+        <v>60.00000090649709</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999557</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S11">
-        <v>120.0000033437943</v>
+        <v>120.000003343794</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -10529,22 +10529,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350853302349757</v>
+        <v>0.6350853302349748</v>
       </c>
       <c r="O12">
         <v>1.100000023884844</v>
       </c>
       <c r="P12">
-        <v>0.6350852924976316</v>
+        <v>0.6350852924976307</v>
       </c>
       <c r="Q12">
-        <v>60.00000075345277</v>
+        <v>60.0000007534529</v>
       </c>
       <c r="R12">
         <v>-89.99999999999572</v>
       </c>
       <c r="S12">
-        <v>120.0000012121689</v>
+        <v>120.0000012121688</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -10591,22 +10591,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350853302349757</v>
+        <v>0.6350853302349747</v>
       </c>
       <c r="O13">
         <v>1.100000023884844</v>
       </c>
       <c r="P13">
-        <v>0.6350852924976318</v>
+        <v>0.6350852924976308</v>
       </c>
       <c r="Q13">
-        <v>60.00000075345276</v>
+        <v>60.00000075345292</v>
       </c>
       <c r="R13">
         <v>-89.99999999999571</v>
       </c>
       <c r="S13">
-        <v>120.000001212169</v>
+        <v>120.0000012121688</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -10653,22 +10653,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853331586578</v>
+        <v>0.6350853331586569</v>
       </c>
       <c r="O14">
         <v>1.100000023884844</v>
       </c>
       <c r="P14">
-        <v>0.6350852908838149</v>
+        <v>0.6350852908838133</v>
       </c>
       <c r="Q14">
-        <v>60.00000076928468</v>
+        <v>60.00000076928492</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S14">
-        <v>120.000001432682</v>
+        <v>120.0000014326818</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350853351077785</v>
+        <v>0.6350853351077776</v>
       </c>
       <c r="O15">
         <v>1.100000023884845</v>
       </c>
       <c r="P15">
-        <v>0.6350852898079359</v>
+        <v>0.6350852898079341</v>
       </c>
       <c r="Q15">
-        <v>60.00000077983956</v>
+        <v>60.00000077983977</v>
       </c>
       <c r="R15">
         <v>-89.99999999999569</v>
       </c>
       <c r="S15">
-        <v>120.0000015796906</v>
+        <v>120.0000015796904</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -10777,22 +10777,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350853292604153</v>
+        <v>0.6350853292604145</v>
       </c>
       <c r="O16">
         <v>1.100000023884844</v>
       </c>
       <c r="P16">
-        <v>0.6350852930355714</v>
+        <v>0.6350852930355703</v>
       </c>
       <c r="Q16">
-        <v>60.00000074817535</v>
+        <v>60.00000074817549</v>
       </c>
       <c r="R16">
         <v>-89.99999999999572</v>
       </c>
       <c r="S16">
-        <v>120.0000011386646</v>
+        <v>120.0000011386645</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -10839,22 +10839,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350853292604153</v>
+        <v>0.6350853292604144</v>
       </c>
       <c r="O17">
         <v>1.100000023884844</v>
       </c>
       <c r="P17">
-        <v>0.6350852930355715</v>
+        <v>0.6350852930355704</v>
       </c>
       <c r="Q17">
-        <v>60.00000074817535</v>
+        <v>60.00000074817549</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S17">
-        <v>120.0000011386647</v>
+        <v>120.0000011386645</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853380314606</v>
+        <v>0.6350853380314596</v>
       </c>
       <c r="O18">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P18">
-        <v>0.6350852881941186</v>
+        <v>0.6350852881941167</v>
       </c>
       <c r="Q18">
-        <v>60.00000079567145</v>
+        <v>60.00000079567181</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S18">
-        <v>120.0000018002036</v>
+        <v>120.0000018002034</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -10963,22 +10963,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853419297029</v>
+        <v>0.635085341929702</v>
       </c>
       <c r="O19">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P19">
-        <v>0.6350852860423615</v>
+        <v>0.6350852860423593</v>
       </c>
       <c r="Q19">
-        <v>60.00000081678089</v>
+        <v>60.0000008167813</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S19">
-        <v>120.0000020942209</v>
+        <v>120.0000020942208</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -11025,22 +11025,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853448533846</v>
+        <v>0.6350853448533836</v>
       </c>
       <c r="O20">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P20">
-        <v>0.6350852844285435</v>
+        <v>0.6350852844285411</v>
       </c>
       <c r="Q20">
-        <v>60.00000083261299</v>
+        <v>60.00000083261343</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S20">
-        <v>120.0000023147339</v>
+        <v>120.0000023147337</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -11087,22 +11087,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853458279452</v>
+        <v>0.6350853458279442</v>
       </c>
       <c r="O21">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P21">
-        <v>0.635085283890604</v>
+        <v>0.6350852838906015</v>
       </c>
       <c r="Q21">
-        <v>60.00000083789035</v>
+        <v>60.00000083789082</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S21">
-        <v>120.0000023882382</v>
+        <v>120.000002388238</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.73503019391566</v>
+        <v>57.73503019391567</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -11221,7 +11221,7 @@
         <v>0.01094540889646504</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674484</v>
+        <v>0.1094540870674483</v>
       </c>
       <c r="N2">
         <v>0.6350853099664725</v>
@@ -11230,10 +11230,10 @@
         <v>1.100000023884844</v>
       </c>
       <c r="P2">
-        <v>0.6350853098585755</v>
+        <v>0.6350853098585756</v>
       </c>
       <c r="Q2">
-        <v>60.00000000061768</v>
+        <v>60.00000000061767</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -11286,22 +11286,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853281372389</v>
+        <v>0.6350853281372384</v>
       </c>
       <c r="O3">
         <v>1.100000023884845</v>
       </c>
       <c r="P3">
-        <v>0.6350852933615864</v>
+        <v>0.6350852933615854</v>
       </c>
       <c r="Q3">
-        <v>60.00000077271604</v>
+        <v>60.00000077271615</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S3">
-        <v>120.0000010386398</v>
+        <v>120.0000010386397</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -11348,22 +11348,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853466538896</v>
+        <v>0.6350853466538892</v>
       </c>
       <c r="O4">
-        <v>1.100000023884845</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P4">
-        <v>0.63508528314074</v>
+        <v>0.6350852831407373</v>
       </c>
       <c r="Q4">
-        <v>60.00000087298584</v>
+        <v>60.0000008729862</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999577</v>
       </c>
       <c r="S4">
-        <v>120.000002435222</v>
+        <v>120.0000024352218</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -11410,22 +11410,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853427556465</v>
+        <v>0.6350853427556462</v>
       </c>
       <c r="O5">
         <v>1.100000023884846</v>
       </c>
       <c r="P5">
-        <v>0.6350852852924965</v>
+        <v>0.6350852852924943</v>
       </c>
       <c r="Q5">
-        <v>60.00000085187672</v>
+        <v>60.00000085187691</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S5">
-        <v>120.0000021412046</v>
+        <v>120.0000021412045</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -11472,22 +11472,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853486030094</v>
+        <v>0.6350853486030091</v>
       </c>
       <c r="O6">
         <v>1.100000023884846</v>
       </c>
       <c r="P6">
-        <v>0.6350852820648603</v>
+        <v>0.6350852820648577</v>
       </c>
       <c r="Q6">
-        <v>60.00000088354103</v>
+        <v>60.00000088354123</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999562</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S6">
-        <v>120.0000025822306</v>
+        <v>120.0000025822304</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -11534,22 +11534,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350853534758119</v>
+        <v>0.6350853534758116</v>
       </c>
       <c r="O7">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P7">
-        <v>0.6350852793751633</v>
+        <v>0.6350852793751605</v>
       </c>
       <c r="Q7">
-        <v>60.00000090992796</v>
+        <v>60.0000009099282</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S7">
-        <v>120.0000029497521</v>
+        <v>120.0000029497519</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -11596,22 +11596,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350853544503724</v>
+        <v>0.6350853544503721</v>
       </c>
       <c r="O8">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P8">
-        <v>0.6350852788372239</v>
+        <v>0.6350852788372209</v>
       </c>
       <c r="Q8">
-        <v>60.00000091520536</v>
+        <v>60.0000009152056</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S8">
-        <v>120.0000030232565</v>
+        <v>120.0000030232563</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -11658,22 +11658,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853563994932</v>
+        <v>0.6350853563994929</v>
       </c>
       <c r="O9">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350852777613454</v>
+        <v>0.6350852777613425</v>
       </c>
       <c r="Q9">
-        <v>60.0000009257601</v>
+        <v>60.00000092576034</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999562</v>
       </c>
       <c r="S9">
-        <v>120.0000031702651</v>
+        <v>120.0000031702649</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -11720,22 +11720,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.635085358348614</v>
+        <v>0.6350853583486138</v>
       </c>
       <c r="O10">
         <v>1.100000023884847</v>
       </c>
       <c r="P10">
-        <v>0.6350852766854665</v>
+        <v>0.6350852766854637</v>
       </c>
       <c r="Q10">
-        <v>60.00000093631488</v>
+        <v>60.00000093631512</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999557</v>
+        <v>-89.99999999999561</v>
       </c>
       <c r="S10">
-        <v>120.0000033172737</v>
+        <v>120.0000033172735</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -11782,22 +11782,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853593231744</v>
+        <v>0.6350853593231741</v>
       </c>
       <c r="O11">
         <v>1.100000023884847</v>
       </c>
       <c r="P11">
-        <v>0.6350852761475271</v>
+        <v>0.6350852761475241</v>
       </c>
       <c r="Q11">
-        <v>60.00000094159229</v>
+        <v>60.00000094159253</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999557</v>
+        <v>-89.99999999999559</v>
       </c>
       <c r="S11">
-        <v>120.000003390778</v>
+        <v>120.0000033907778</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -11844,22 +11844,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350853310609202</v>
+        <v>0.6350853310609198</v>
       </c>
       <c r="O12">
         <v>1.100000023884845</v>
       </c>
       <c r="P12">
-        <v>0.6350852917477676</v>
+        <v>0.6350852917477668</v>
       </c>
       <c r="Q12">
-        <v>60.00000078854826</v>
+        <v>60.00000078854833</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S12">
-        <v>120.0000012591527</v>
+        <v>120.0000012591526</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -11906,22 +11906,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350853310609204</v>
+        <v>0.6350853310609198</v>
       </c>
       <c r="O13">
         <v>1.100000023884845</v>
       </c>
       <c r="P13">
-        <v>0.6350852917477678</v>
+        <v>0.6350852917477667</v>
       </c>
       <c r="Q13">
-        <v>60.00000078854823</v>
+        <v>60.00000078854836</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S13">
-        <v>120.0000012591527</v>
+        <v>120.0000012591526</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -11968,22 +11968,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853339846023</v>
+        <v>0.635085333984602</v>
       </c>
       <c r="O14">
         <v>1.100000023884845</v>
       </c>
       <c r="P14">
-        <v>0.6350852901339511</v>
+        <v>0.6350852901339494</v>
       </c>
       <c r="Q14">
-        <v>60.00000080438014</v>
+        <v>60.00000080438035</v>
       </c>
       <c r="R14">
         <v>-89.99999999999575</v>
       </c>
       <c r="S14">
-        <v>120.0000014796658</v>
+        <v>120.0000014796656</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -12030,22 +12030,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.635085335933723</v>
+        <v>0.6350853359337226</v>
       </c>
       <c r="O15">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P15">
-        <v>0.6350852890580719</v>
+        <v>0.63508528905807</v>
       </c>
       <c r="Q15">
-        <v>60.00000081493506</v>
+        <v>60.00000081493521</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S15">
-        <v>120.0000016266744</v>
+        <v>120.0000016266742</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -12092,22 +12092,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350853300863599</v>
+        <v>0.6350853300863593</v>
       </c>
       <c r="O16">
         <v>1.100000023884845</v>
       </c>
       <c r="P16">
-        <v>0.6350852922857073</v>
+        <v>0.6350852922857065</v>
       </c>
       <c r="Q16">
-        <v>60.00000078327084</v>
+        <v>60.00000078327093</v>
       </c>
       <c r="R16">
         <v>-89.99999999999572</v>
       </c>
       <c r="S16">
-        <v>120.0000011856484</v>
+        <v>120.0000011856483</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -12154,22 +12154,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350853300863599</v>
+        <v>0.6350853300863594</v>
       </c>
       <c r="O17">
         <v>1.100000023884845</v>
       </c>
       <c r="P17">
-        <v>0.6350852922857074</v>
+        <v>0.6350852922857064</v>
       </c>
       <c r="Q17">
-        <v>60.00000078327083</v>
+        <v>60.00000078327094</v>
       </c>
       <c r="R17">
         <v>-89.99999999999572</v>
       </c>
       <c r="S17">
-        <v>120.0000011856484</v>
+        <v>120.0000011856483</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -12216,22 +12216,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853388574051</v>
+        <v>0.6350853388574046</v>
       </c>
       <c r="O18">
         <v>1.100000023884845</v>
       </c>
       <c r="P18">
-        <v>0.6350852874442549</v>
+        <v>0.6350852874442525</v>
       </c>
       <c r="Q18">
-        <v>60.00000083076693</v>
+        <v>60.0000008307672</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S18">
-        <v>120.0000018471874</v>
+        <v>120.0000018471873</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -12278,22 +12278,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853427556473</v>
+        <v>0.6350853427556469</v>
       </c>
       <c r="O19">
-        <v>1.100000023884845</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P19">
-        <v>0.6350852852924975</v>
+        <v>0.6350852852924952</v>
       </c>
       <c r="Q19">
-        <v>60.00000085187637</v>
+        <v>60.00000085187668</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S19">
-        <v>120.0000021412047</v>
+        <v>120.0000021412046</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -12340,22 +12340,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853456793289</v>
+        <v>0.6350853456793286</v>
       </c>
       <c r="O20">
-        <v>1.100000023884845</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P20">
-        <v>0.6350852836786794</v>
+        <v>0.6350852836786769</v>
       </c>
       <c r="Q20">
-        <v>60.00000086770847</v>
+        <v>60.00000086770879</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999577</v>
       </c>
       <c r="S20">
-        <v>120.0000023617177</v>
+        <v>120.0000023617175</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -12402,22 +12402,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853466538896</v>
+        <v>0.635085346653889</v>
       </c>
       <c r="O21">
-        <v>1.100000023884845</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P21">
-        <v>0.63508528314074</v>
+        <v>0.6350852831407374</v>
       </c>
       <c r="Q21">
-        <v>60.00000087298584</v>
+        <v>60.00000087298618</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999577</v>
       </c>
       <c r="S21">
-        <v>120.000002435222</v>
+        <v>120.0000024352218</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -12610,10 +12610,10 @@
         <v>1.09649687783607</v>
       </c>
       <c r="Q3">
-        <v>29.92212961550543</v>
+        <v>29.92212961550542</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S3">
         <v>149.5246566712658</v>
@@ -12672,10 +12672,10 @@
         <v>1.096496877642924</v>
       </c>
       <c r="Q4">
-        <v>29.92212962977439</v>
+        <v>29.9221296297744</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S4">
         <v>149.5246566822253</v>
@@ -12982,7 +12982,7 @@
         <v>1.096496877541267</v>
       </c>
       <c r="Q9">
-        <v>29.92212963728438</v>
+        <v>29.92212963728439</v>
       </c>
       <c r="R9">
         <v>-89.99999999999635</v>
@@ -13165,13 +13165,13 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P12">
-        <v>1.096496877805574</v>
+        <v>1.096496877805573</v>
       </c>
       <c r="Q12">
         <v>29.92212961775842</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S12">
         <v>149.5246566729963</v>
@@ -13292,10 +13292,10 @@
         <v>1.096496877775077</v>
       </c>
       <c r="Q14">
-        <v>29.92212962001141</v>
+        <v>29.92212962001142</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S14">
         <v>149.5246566747267</v>
@@ -13354,7 +13354,7 @@
         <v>1.096496877754745</v>
       </c>
       <c r="Q15">
-        <v>29.92212962151341</v>
+        <v>29.92212962151342</v>
       </c>
       <c r="R15">
         <v>-89.99999999999635</v>
@@ -13419,7 +13419,7 @@
         <v>29.92212961700742</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S16">
         <v>149.5246566724194</v>
@@ -13481,7 +13481,7 @@
         <v>29.92212961700742</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S17">
         <v>149.5246566724194</v>
@@ -13540,7 +13540,7 @@
         <v>1.096496877724249</v>
       </c>
       <c r="Q18">
-        <v>29.92212962376642</v>
+        <v>29.92212962376641</v>
       </c>
       <c r="R18">
         <v>-89.99999999999635</v>
@@ -13605,7 +13605,7 @@
         <v>29.9221296267704</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S19">
         <v>149.524656679918</v>
@@ -13667,7 +13667,7 @@
         <v>29.9221296290234</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S20">
         <v>149.5246566816485</v>
@@ -13726,10 +13726,10 @@
         <v>1.096496877642924</v>
       </c>
       <c r="Q21">
-        <v>29.92212962977439</v>
+        <v>29.9221296297744</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S21">
         <v>149.5246566822253</v>
@@ -14347,7 +14347,7 @@
         <v>0.01094540889646504</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674484</v>
+        <v>0.1094540870674483</v>
       </c>
       <c r="N2">
         <v>1.090352556933547</v>
@@ -14418,13 +14418,13 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P3">
-        <v>1.096496877823413</v>
+        <v>1.096496877823412</v>
       </c>
       <c r="Q3">
         <v>29.922129616241</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S3">
         <v>149.5246566715823</v>
@@ -14486,7 +14486,7 @@
         <v>29.92212963050997</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S4">
         <v>149.5246566825418</v>
@@ -14976,10 +14976,10 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P12">
-        <v>1.096496877792916</v>
+        <v>1.096496877792915</v>
       </c>
       <c r="Q12">
-        <v>29.92212961849399</v>
+        <v>29.922129618494</v>
       </c>
       <c r="R12">
         <v>-89.99999999999635</v>
@@ -15038,10 +15038,10 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P13">
-        <v>1.096496877792916</v>
+        <v>1.096496877792915</v>
       </c>
       <c r="Q13">
-        <v>29.92212961849399</v>
+        <v>29.922129618494</v>
       </c>
       <c r="R13">
         <v>-89.99999999999635</v>
@@ -15106,7 +15106,7 @@
         <v>29.92212962074699</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S14">
         <v>149.5246566750432</v>
@@ -15351,10 +15351,10 @@
         <v>1.096496877711591</v>
       </c>
       <c r="Q18">
-        <v>29.92212962450199</v>
+        <v>29.92212962450198</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S18">
         <v>149.5246566779273</v>
@@ -15540,7 +15540,7 @@
         <v>29.92212963050997</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S21">
         <v>149.5246566825418</v>
@@ -15629,7 +15629,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.18802315383259</v>
+        <v>46.1880231538326</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -15638,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760120191</v>
+        <v>266.6666760120192</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -15647,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -15665,7 +15665,7 @@
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773502692110766</v>
+        <v>0.5773502692110767</v>
       </c>
       <c r="O2">
         <v>0.9999999999962953</v>
@@ -15674,7 +15674,7 @@
         <v>0.577350269169092</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075389</v>
+        <v>60.00000000075387</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -15727,22 +15727,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502855857104</v>
+        <v>0.5773502855857102</v>
       </c>
       <c r="O3">
         <v>0.999999999996296</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027883</v>
+        <v>0.5773502543027884</v>
       </c>
       <c r="Q3">
-        <v>60.00000076610993</v>
+        <v>60.00000076610992</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S3">
-        <v>120.0000010262632</v>
+        <v>120.0000010262631</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -15789,22 +15789,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350305888182</v>
+        <v>0.5773503058881816</v>
       </c>
       <c r="O4">
         <v>0.9999999999962951</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802625</v>
+        <v>0.577350248480263</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007625</v>
+        <v>60.00000027007621</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S4">
-        <v>120.000003019149</v>
+        <v>120.0000030191489</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -15851,22 +15851,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.577350301613978</v>
+        <v>0.5773503016139769</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P5">
-        <v>0.577350249706058</v>
+        <v>0.5773502497060582</v>
       </c>
       <c r="Q5">
-        <v>60.00000037450432</v>
+        <v>60.0000003745043</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S5">
-        <v>120.0000025995941</v>
+        <v>120.000002599594</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -15913,22 +15913,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.577350308025285</v>
+        <v>0.5773503080252835</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P6">
-        <v>0.5773502478673659</v>
+        <v>0.5773502478673663</v>
       </c>
       <c r="Q6">
         <v>60.00000021786207</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999595</v>
       </c>
       <c r="S6">
-        <v>120.0000032289265</v>
+        <v>120.0000032289263</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -15975,22 +15975,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680408</v>
+        <v>0.5773503133680392</v>
       </c>
       <c r="O7">
         <v>0.9999999999962951</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351224</v>
+        <v>0.577350246335123</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732689</v>
+        <v>60.00000008732688</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999596</v>
       </c>
       <c r="S7">
-        <v>120.0000037533702</v>
+        <v>120.00000375337</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -16037,22 +16037,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773503144365919</v>
+        <v>0.5773503144365902</v>
       </c>
       <c r="O8">
         <v>0.9999999999962949</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286738</v>
+        <v>0.5773502460286744</v>
       </c>
       <c r="Q8">
-        <v>60.00000006121984</v>
+        <v>60.00000006121981</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999596</v>
       </c>
       <c r="S8">
-        <v>120.0000038582589</v>
+        <v>120.0000038582587</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -16099,22 +16099,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773503165736942</v>
+        <v>0.5773503165736925</v>
       </c>
       <c r="O9">
         <v>0.999999999996295</v>
       </c>
       <c r="P9">
-        <v>0.5773502454157765</v>
+        <v>0.5773502454157772</v>
       </c>
       <c r="Q9">
-        <v>60.00000000900577</v>
+        <v>60.00000000900576</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S9">
-        <v>120.0000040680364</v>
+        <v>120.0000040680362</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -16161,22 +16161,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107966</v>
+        <v>0.5773503187107949</v>
       </c>
       <c r="O10">
         <v>0.9999999999962949</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028792</v>
+        <v>0.5773502448028799</v>
       </c>
       <c r="Q10">
         <v>59.99999995679168</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S10">
-        <v>120.0000042778138</v>
+        <v>120.0000042778136</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -16223,22 +16223,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773503197793477</v>
+        <v>0.5773503197793463</v>
       </c>
       <c r="O11">
         <v>0.9999999999962949</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964307</v>
+        <v>0.5773502444964312</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068465</v>
+        <v>59.99999993068462</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S11">
-        <v>120.0000043827026</v>
+        <v>120.0000043827024</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -16285,16 +16285,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502887913642</v>
+        <v>0.577350288791364</v>
       </c>
       <c r="O12">
         <v>0.9999999999962959</v>
       </c>
       <c r="P12">
-        <v>0.5773502533834421</v>
+        <v>0.5773502533834423</v>
       </c>
       <c r="Q12">
-        <v>60.0000006877888</v>
+        <v>60.00000068778878</v>
       </c>
       <c r="R12">
         <v>-89.99999999999588</v>
@@ -16350,13 +16350,13 @@
         <v>0.5773502887913642</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962959</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P13">
-        <v>0.5773502533834421</v>
+        <v>0.5773502533834423</v>
       </c>
       <c r="Q13">
-        <v>60.0000006877888</v>
+        <v>60.00000068778878</v>
       </c>
       <c r="R13">
         <v>-89.99999999999588</v>
@@ -16409,19 +16409,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502919970173</v>
+        <v>0.5773502919970172</v>
       </c>
       <c r="O14">
         <v>0.9999999999962959</v>
       </c>
       <c r="P14">
-        <v>0.577350252464096</v>
+        <v>0.5773502524640958</v>
       </c>
       <c r="Q14">
         <v>60.0000006094677</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S14">
         <v>120.0000016555955</v>
@@ -16471,22 +16471,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502941341199</v>
+        <v>0.5773502941341192</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511987</v>
+        <v>0.5773502518511989</v>
       </c>
       <c r="Q15">
-        <v>60.00000055725361</v>
+        <v>60.00000055725359</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S15">
-        <v>120.000001865373</v>
+        <v>120.0000018653729</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -16533,13 +16533,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502877228128</v>
+        <v>0.5773502877228127</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962959</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P16">
-        <v>0.5773502536898908</v>
+        <v>0.577350253689891</v>
       </c>
       <c r="Q16">
         <v>60.00000071389584</v>
@@ -16595,13 +16595,13 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.577350287722813</v>
+        <v>0.5773502877228127</v>
       </c>
       <c r="O17">
         <v>0.999999999996296</v>
       </c>
       <c r="P17">
-        <v>0.5773502536898908</v>
+        <v>0.5773502536898909</v>
       </c>
       <c r="Q17">
         <v>60.00000071389584</v>
@@ -16657,22 +16657,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502973397729</v>
+        <v>0.5773502973397728</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318522</v>
+        <v>0.5773502509318521</v>
       </c>
       <c r="Q18">
         <v>60.00000047893252</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S18">
-        <v>120.0000021800392</v>
+        <v>120.0000021800391</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -16719,19 +16719,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773503016139774</v>
+        <v>0.5773503016139772</v>
       </c>
       <c r="O19">
         <v>0.9999999999962953</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060573</v>
+        <v>0.5773502497060574</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450439</v>
+        <v>60.00000037450437</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S19">
         <v>120.000002599594</v>
@@ -16781,22 +16781,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196308</v>
+        <v>0.5773503048196305</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P20">
-        <v>0.5773502487867112</v>
+        <v>0.5773502487867114</v>
       </c>
       <c r="Q20">
-        <v>60.00000029618329</v>
+        <v>60.00000029618327</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S20">
-        <v>120.0000029142603</v>
+        <v>120.0000029142602</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -16843,22 +16843,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773503058881819</v>
+        <v>0.5773503058881816</v>
       </c>
       <c r="O21">
         <v>0.9999999999962951</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802625</v>
+        <v>0.5773502484802627</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007626</v>
+        <v>60.00000027007622</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S21">
-        <v>120.000003019149</v>
+        <v>120.0000030191489</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -16944,7 +16944,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.18802315383259</v>
+        <v>46.1880231538326</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -16953,7 +16953,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760120191</v>
+        <v>266.6666760120192</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -16962,7 +16962,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -16980,7 +16980,7 @@
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773502692110766</v>
+        <v>0.5773502692110767</v>
       </c>
       <c r="O2">
         <v>0.9999999999962953</v>
@@ -16989,7 +16989,7 @@
         <v>0.577350269169092</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075389</v>
+        <v>60.00000000075387</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -17042,22 +17042,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502855857104</v>
+        <v>0.5773502855857102</v>
       </c>
       <c r="O3">
         <v>0.999999999996296</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027883</v>
+        <v>0.5773502543027884</v>
       </c>
       <c r="Q3">
-        <v>60.00000076610993</v>
+        <v>60.00000076610992</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S3">
-        <v>120.0000010262632</v>
+        <v>120.0000010262631</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -17104,22 +17104,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350305888182</v>
+        <v>0.5773503058881816</v>
       </c>
       <c r="O4">
         <v>0.9999999999962951</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802625</v>
+        <v>0.577350248480263</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007625</v>
+        <v>60.00000027007621</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S4">
-        <v>120.000003019149</v>
+        <v>120.0000030191489</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -17166,22 +17166,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.577350301613978</v>
+        <v>0.5773503016139769</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P5">
-        <v>0.577350249706058</v>
+        <v>0.5773502497060582</v>
       </c>
       <c r="Q5">
-        <v>60.00000037450432</v>
+        <v>60.0000003745043</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S5">
-        <v>120.0000025995941</v>
+        <v>120.000002599594</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -17228,22 +17228,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.577350308025285</v>
+        <v>0.5773503080252835</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P6">
-        <v>0.5773502478673659</v>
+        <v>0.5773502478673663</v>
       </c>
       <c r="Q6">
         <v>60.00000021786207</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999595</v>
       </c>
       <c r="S6">
-        <v>120.0000032289265</v>
+        <v>120.0000032289263</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -17290,22 +17290,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680408</v>
+        <v>0.5773503133680392</v>
       </c>
       <c r="O7">
         <v>0.9999999999962951</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351224</v>
+        <v>0.577350246335123</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732689</v>
+        <v>60.00000008732688</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999596</v>
       </c>
       <c r="S7">
-        <v>120.0000037533702</v>
+        <v>120.00000375337</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -17352,22 +17352,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773503144365919</v>
+        <v>0.5773503144365902</v>
       </c>
       <c r="O8">
         <v>0.9999999999962949</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286738</v>
+        <v>0.5773502460286744</v>
       </c>
       <c r="Q8">
-        <v>60.00000006121984</v>
+        <v>60.00000006121981</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999596</v>
       </c>
       <c r="S8">
-        <v>120.0000038582589</v>
+        <v>120.0000038582587</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -17414,22 +17414,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773503165736942</v>
+        <v>0.5773503165736925</v>
       </c>
       <c r="O9">
         <v>0.999999999996295</v>
       </c>
       <c r="P9">
-        <v>0.5773502454157765</v>
+        <v>0.5773502454157772</v>
       </c>
       <c r="Q9">
-        <v>60.00000000900577</v>
+        <v>60.00000000900576</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S9">
-        <v>120.0000040680364</v>
+        <v>120.0000040680362</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -17476,22 +17476,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107966</v>
+        <v>0.5773503187107949</v>
       </c>
       <c r="O10">
         <v>0.9999999999962949</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028792</v>
+        <v>0.5773502448028799</v>
       </c>
       <c r="Q10">
         <v>59.99999995679168</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S10">
-        <v>120.0000042778138</v>
+        <v>120.0000042778136</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -17538,22 +17538,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773503197793477</v>
+        <v>0.5773503197793463</v>
       </c>
       <c r="O11">
         <v>0.9999999999962949</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964307</v>
+        <v>0.5773502444964312</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068465</v>
+        <v>59.99999993068462</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S11">
-        <v>120.0000043827026</v>
+        <v>120.0000043827024</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -17600,16 +17600,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502887913642</v>
+        <v>0.577350288791364</v>
       </c>
       <c r="O12">
         <v>0.9999999999962959</v>
       </c>
       <c r="P12">
-        <v>0.5773502533834421</v>
+        <v>0.5773502533834423</v>
       </c>
       <c r="Q12">
-        <v>60.0000006877888</v>
+        <v>60.00000068778878</v>
       </c>
       <c r="R12">
         <v>-89.99999999999588</v>
@@ -17665,13 +17665,13 @@
         <v>0.5773502887913642</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962959</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P13">
-        <v>0.5773502533834421</v>
+        <v>0.5773502533834423</v>
       </c>
       <c r="Q13">
-        <v>60.0000006877888</v>
+        <v>60.00000068778878</v>
       </c>
       <c r="R13">
         <v>-89.99999999999588</v>
@@ -17724,19 +17724,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502919970173</v>
+        <v>0.5773502919970172</v>
       </c>
       <c r="O14">
         <v>0.9999999999962959</v>
       </c>
       <c r="P14">
-        <v>0.577350252464096</v>
+        <v>0.5773502524640958</v>
       </c>
       <c r="Q14">
         <v>60.0000006094677</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S14">
         <v>120.0000016555955</v>
@@ -17786,22 +17786,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502941341199</v>
+        <v>0.5773502941341192</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511987</v>
+        <v>0.5773502518511989</v>
       </c>
       <c r="Q15">
-        <v>60.00000055725361</v>
+        <v>60.00000055725359</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S15">
-        <v>120.000001865373</v>
+        <v>120.0000018653729</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -17848,13 +17848,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502877228128</v>
+        <v>0.5773502877228127</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962959</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P16">
-        <v>0.5773502536898908</v>
+        <v>0.577350253689891</v>
       </c>
       <c r="Q16">
         <v>60.00000071389584</v>
@@ -17910,13 +17910,13 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.577350287722813</v>
+        <v>0.5773502877228127</v>
       </c>
       <c r="O17">
         <v>0.999999999996296</v>
       </c>
       <c r="P17">
-        <v>0.5773502536898908</v>
+        <v>0.5773502536898909</v>
       </c>
       <c r="Q17">
         <v>60.00000071389584</v>
@@ -17972,22 +17972,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502973397729</v>
+        <v>0.5773502973397728</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318522</v>
+        <v>0.5773502509318521</v>
       </c>
       <c r="Q18">
         <v>60.00000047893252</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S18">
-        <v>120.0000021800392</v>
+        <v>120.0000021800391</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -18034,19 +18034,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773503016139774</v>
+        <v>0.5773503016139772</v>
       </c>
       <c r="O19">
         <v>0.9999999999962953</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060573</v>
+        <v>0.5773502497060574</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450439</v>
+        <v>60.00000037450437</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S19">
         <v>120.000002599594</v>
@@ -18096,22 +18096,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196308</v>
+        <v>0.5773503048196305</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P20">
-        <v>0.5773502487867112</v>
+        <v>0.5773502487867114</v>
       </c>
       <c r="Q20">
-        <v>60.00000029618329</v>
+        <v>60.00000029618327</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S20">
-        <v>120.0000029142603</v>
+        <v>120.0000029142602</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -18158,22 +18158,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773503058881819</v>
+        <v>0.5773503058881816</v>
       </c>
       <c r="O21">
         <v>0.9999999999962951</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802625</v>
+        <v>0.5773502484802627</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007626</v>
+        <v>60.00000027007622</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S21">
-        <v>120.000003019149</v>
+        <v>120.0000030191489</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -18277,7 +18277,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -18363,7 +18363,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P3">
-        <v>0.9963798869115342</v>
+        <v>0.9963798869115341</v>
       </c>
       <c r="Q3">
         <v>29.9123040770683</v>
@@ -18605,7 +18605,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9900480150169573</v>
+        <v>0.9900480150169571</v>
       </c>
       <c r="O7">
         <v>0.9999999999994829</v>
@@ -18797,7 +18797,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P10">
-        <v>0.9963798866566953</v>
+        <v>0.9963798866566952</v>
       </c>
       <c r="Q10">
         <v>29.91230410523937</v>
@@ -18853,7 +18853,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9900480150831403</v>
+        <v>0.9900480150831402</v>
       </c>
       <c r="O11">
         <v>0.9999999999994829</v>
@@ -19169,7 +19169,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P16">
-        <v>0.9963798868950929</v>
+        <v>0.996379886895093</v>
       </c>
       <c r="Q16">
         <v>29.91230407888578</v>
@@ -19231,7 +19231,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P17">
-        <v>0.9963798868950929</v>
+        <v>0.996379886895093</v>
       </c>
       <c r="Q17">
         <v>29.91230407888578</v>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480148956214</v>
+        <v>0.9900480148956212</v>
       </c>
       <c r="O19">
         <v>0.9999999999994829</v>
@@ -19417,10 +19417,10 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P20">
-        <v>0.9963798867635631</v>
+        <v>0.9963798867635634</v>
       </c>
       <c r="Q20">
-        <v>29.9123040934257</v>
+        <v>29.91230409342569</v>
       </c>
       <c r="R20">
         <v>-89.99999999999636</v>
@@ -19592,7 +19592,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -19678,7 +19678,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P3">
-        <v>0.9963798869115342</v>
+        <v>0.9963798869115341</v>
       </c>
       <c r="Q3">
         <v>29.9123040770683</v>
@@ -19920,7 +19920,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9900480150169573</v>
+        <v>0.9900480150169571</v>
       </c>
       <c r="O7">
         <v>0.9999999999994829</v>
@@ -20112,7 +20112,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P10">
-        <v>0.9963798866566953</v>
+        <v>0.9963798866566952</v>
       </c>
       <c r="Q10">
         <v>29.91230410523937</v>
@@ -20168,7 +20168,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9900480150831403</v>
+        <v>0.9900480150831402</v>
       </c>
       <c r="O11">
         <v>0.9999999999994829</v>
@@ -20484,7 +20484,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P16">
-        <v>0.9963798868950929</v>
+        <v>0.996379886895093</v>
       </c>
       <c r="Q16">
         <v>29.91230407888578</v>
@@ -20546,7 +20546,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P17">
-        <v>0.9963798868950929</v>
+        <v>0.996379886895093</v>
       </c>
       <c r="Q17">
         <v>29.91230407888578</v>
@@ -20664,7 +20664,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480148956214</v>
+        <v>0.9900480148956212</v>
       </c>
       <c r="O19">
         <v>0.9999999999994829</v>
@@ -20732,10 +20732,10 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P20">
-        <v>0.9963798867635631</v>
+        <v>0.9963798867635634</v>
       </c>
       <c r="Q20">
-        <v>29.9123040934257</v>
+        <v>29.91230409342569</v>
       </c>
       <c r="R20">
         <v>-89.99999999999636</v>
@@ -20916,10 +20916,10 @@
         <v>0.01094540889714034</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646416</v>
+        <v>0.01094540889646415</v>
       </c>
       <c r="M2">
         <v>0.1094540870674506</v>
@@ -20931,10 +20931,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350853098608015</v>
+        <v>0.6350853098608013</v>
       </c>
       <c r="Q2">
-        <v>4.228446394548947E-09</v>
+        <v>4.228446760436042E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -20987,22 +20987,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350852940976681</v>
+        <v>0.6350852940976675</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350853272056293</v>
+        <v>0.6350853272056288</v>
       </c>
       <c r="Q3">
-        <v>9.908897321974448E-07</v>
+        <v>9.908897225030307E-07</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999992578329</v>
+        <v>-179.9999992578328</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -21049,22 +21049,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350852838768194</v>
+        <v>0.6350852838768164</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853457222794</v>
+        <v>0.6350853457222793</v>
       </c>
       <c r="Q4">
-        <v>2.387471857301227E-06</v>
+        <v>2.387471726895839E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999991575631</v>
+        <v>-179.9999991575628</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350852860285743</v>
+        <v>0.6350852860285731</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -21120,13 +21120,13 @@
         <v>0.6350853418240366</v>
       </c>
       <c r="Q5">
-        <v>2.093454441761202E-06</v>
+        <v>2.093454447616153E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999991786724</v>
+        <v>-179.9999991786722</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -21173,22 +21173,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852828009368</v>
+        <v>0.6350852828009352</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853476713992</v>
+        <v>0.6350853476713996</v>
       </c>
       <c r="Q6">
-        <v>2.534480347995371E-06</v>
+        <v>2.53448034708098E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999991470081</v>
+        <v>-179.9999991470079</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -21235,22 +21235,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852801112388</v>
+        <v>0.6350852801112369</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350853525442018</v>
+        <v>0.635085352544202</v>
       </c>
       <c r="Q7">
-        <v>2.90200190273767E-06</v>
+        <v>2.902001920793988E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999991206213</v>
+        <v>-179.9999991206211</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -21297,22 +21297,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852795732991</v>
+        <v>0.6350852795732973</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853535187623</v>
+        <v>0.6350853535187624</v>
       </c>
       <c r="Q8">
-        <v>2.975506207373844E-06</v>
+        <v>2.975506232618034E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999991153439</v>
+        <v>-179.9999991153437</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -21359,22 +21359,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852784974198</v>
+        <v>0.6350852784974178</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350853554678831</v>
+        <v>0.6350853554678835</v>
       </c>
       <c r="Q9">
-        <v>3.122514843396424E-06</v>
+        <v>3.122514861452625E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999991047891</v>
+        <v>-179.9999991047889</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -21421,22 +21421,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852774215405</v>
+        <v>0.6350852774215385</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350853574170041</v>
+        <v>0.6350853574170043</v>
       </c>
       <c r="Q10">
-        <v>3.269523472337161E-06</v>
+        <v>3.269523484610464E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.9999990942344</v>
+        <v>-179.9999990942342</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -21483,22 +21483,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852768836007</v>
+        <v>0.6350852768835989</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350853583915645</v>
+        <v>0.635085358391565</v>
       </c>
       <c r="Q11">
-        <v>3.343027784121441E-06</v>
+        <v>3.34302779639472E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.999999088957</v>
+        <v>-179.9999990889568</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -21545,7 +21545,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350852924838488</v>
+        <v>0.6350852924838478</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -21554,13 +21554,13 @@
         <v>0.6350853301293106</v>
       </c>
       <c r="Q12">
-        <v>1.211402675068545E-06</v>
+        <v>1.211402621289441E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9999992420008</v>
+        <v>-179.9999992420007</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -21607,22 +21607,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852924838488</v>
+        <v>0.635085292483848</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350853301293106</v>
+        <v>0.6350853301293105</v>
       </c>
       <c r="Q13">
-        <v>1.211402637258142E-06</v>
+        <v>1.211402627563633E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.9999992420008</v>
+        <v>-179.9999992420006</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -21669,7 +21669,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852908700314</v>
+        <v>0.6350852908700303</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -21678,13 +21678,13 @@
         <v>0.6350853330529924</v>
       </c>
       <c r="Q14">
-        <v>1.43191563590059E-06</v>
+        <v>1.43191558008031E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9999992261688</v>
+        <v>-179.9999992261685</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -21731,22 +21731,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852897941512</v>
+        <v>0.6350852897941504</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350853350021131</v>
+        <v>0.6350853350021129</v>
       </c>
       <c r="Q15">
-        <v>1.578924232098705E-06</v>
+        <v>1.578924234948509E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.999999215614</v>
+        <v>-179.9999992156138</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -21793,22 +21793,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852930217886</v>
+        <v>0.6350852930217878</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350853291547502</v>
+        <v>0.6350853291547499</v>
       </c>
       <c r="Q16">
-        <v>1.137898365848248E-06</v>
+        <v>1.137898317851996E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.9999992472781</v>
+        <v>-179.999999247278</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -21855,22 +21855,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852930217886</v>
+        <v>0.6350852930217878</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350853291547502</v>
+        <v>0.6350853291547499</v>
       </c>
       <c r="Q17">
-        <v>1.137898328037846E-06</v>
+        <v>1.137898318343361E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.9999992472782</v>
+        <v>-179.999999247278</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -21917,22 +21917,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350852881803345</v>
+        <v>0.6350852881803325</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853379257951</v>
+        <v>0.635085337925795</v>
       </c>
       <c r="Q18">
-        <v>1.79943725808579E-06</v>
+        <v>1.799437154241447E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.999999199782</v>
+        <v>-179.9999991997817</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -21979,7 +21979,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852860285772</v>
+        <v>0.6350852860285745</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -21988,13 +21988,13 @@
         <v>0.6350853418240372</v>
       </c>
       <c r="Q19">
-        <v>2.093454565666771E-06</v>
+        <v>2.093454416861591E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999991786725</v>
+        <v>-179.9999991786722</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -22041,22 +22041,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.635085284414759</v>
+        <v>0.6350852844147561</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853447477189</v>
+        <v>0.6350853447477188</v>
       </c>
       <c r="Q20">
-        <v>2.313967540670682E-06</v>
+        <v>2.313967401106913E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999991628404</v>
+        <v>-179.9999991628401</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -22103,7 +22103,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350852838768194</v>
+        <v>0.6350852838768164</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -22112,13 +22112,13 @@
         <v>0.6350853457222794</v>
       </c>
       <c r="Q21">
-        <v>2.3874718515184E-06</v>
+        <v>2.387471706171781E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999991575631</v>
+        <v>-179.9999991575627</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -22207,40 +22207,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57.73503018874288</v>
+        <v>57.7350301887429</v>
       </c>
       <c r="D2">
-        <v>57.73503019620923</v>
+        <v>57.73503019620924</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.3333522114187</v>
+        <v>333.3333522114188</v>
       </c>
       <c r="G2">
-        <v>333.3333522545257</v>
+        <v>333.3333522545258</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219823</v>
+        <v>0.01094540887219822</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.6350853098448019</v>
+        <v>0.6350853098448016</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -22249,7 +22249,7 @@
         <v>0.6350853098608013</v>
       </c>
       <c r="Q2">
-        <v>4.228442635118158E-09</v>
+        <v>4.228442202795495E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -22258,7 +22258,7 @@
         <v>-179.9999999948365</v>
       </c>
       <c r="T2">
-        <v>57.7350301918306</v>
+        <v>57.73503019183062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -22302,22 +22302,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350852933478038</v>
+        <v>0.6350852933478031</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.635085328031573</v>
+        <v>0.6350853280315725</v>
       </c>
       <c r="Q3">
-        <v>1.03787372739117E-06</v>
+        <v>1.03787358956802E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999992227374</v>
+        <v>-179.9999992227375</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -22364,16 +22364,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.635085283126955</v>
+        <v>0.6350852831269522</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853465482232</v>
+        <v>0.6350853465482219</v>
       </c>
       <c r="Q4">
-        <v>2.434455870402535E-06</v>
+        <v>2.434455601367876E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -22426,16 +22426,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.63508528527871</v>
+        <v>0.6350852852787087</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350853426499804</v>
+        <v>0.63508534264998</v>
       </c>
       <c r="Q5">
-        <v>2.140438449380155E-06</v>
+        <v>2.140438318220097E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -22488,22 +22488,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852820510724</v>
+        <v>0.6350852820510708</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853484973433</v>
+        <v>0.635085348497343</v>
       </c>
       <c r="Q6">
-        <v>2.581464355263343E-06</v>
+        <v>2.58146421727566E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999991119127</v>
+        <v>-179.9999991119126</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852793613745</v>
+        <v>0.6350852793613726</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350853533701457</v>
+        <v>0.6350853533701454</v>
       </c>
       <c r="Q7">
-        <v>2.94898591314466E-06</v>
+        <v>2.948985802035691E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -22612,22 +22612,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852788234348</v>
+        <v>0.6350852788234328</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853543447061</v>
+        <v>0.6350853543447059</v>
       </c>
       <c r="Q8">
-        <v>3.022490203726509E-06</v>
+        <v>3.022490116053733E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999990802485</v>
+        <v>-179.9999990802484</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -22674,22 +22674,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852777475556</v>
+        <v>0.6350852777475536</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350853562938271</v>
+        <v>0.635085356293827</v>
       </c>
       <c r="Q9">
-        <v>3.169498854117304E-06</v>
+        <v>3.169498743008238E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999990696937</v>
+        <v>-179.9999990696936</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -22736,22 +22736,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852766716761</v>
+        <v>0.6350852766716742</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350853582429483</v>
+        <v>0.6350853582429479</v>
       </c>
       <c r="Q10">
-        <v>3.316507477484474E-06</v>
+        <v>3.316507366375348E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.999999059139</v>
+        <v>-179.9999990591389</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -22798,22 +22798,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852761337363</v>
+        <v>0.6350852761337344</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350853592175087</v>
+        <v>0.6350853592175083</v>
       </c>
       <c r="Q11">
-        <v>3.390011795156211E-06</v>
+        <v>3.390011678264237E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.9999990538616</v>
+        <v>-179.9999990538615</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -22860,22 +22860,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350852917339843</v>
+        <v>0.6350852917339835</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350853309552548</v>
+        <v>0.635085330955254</v>
       </c>
       <c r="Q12">
-        <v>1.258386680855699E-06</v>
+        <v>1.258386512756922E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9999992069053</v>
+        <v>-179.9999992069054</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -22922,16 +22922,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852917339843</v>
+        <v>0.6350852917339836</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350853309552545</v>
+        <v>0.635085330955254</v>
       </c>
       <c r="Q13">
-        <v>1.258386658009795E-06</v>
+        <v>1.258386508620909E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -22984,16 +22984,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852901201672</v>
+        <v>0.6350852901201659</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350853338789365</v>
+        <v>0.6350853338789354</v>
       </c>
       <c r="Q14">
-        <v>1.478899650935176E-06</v>
+        <v>1.478899451305656E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -23046,16 +23046,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852890442868</v>
+        <v>0.6350852890442861</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.635085335828057</v>
+        <v>0.6350853358280566</v>
       </c>
       <c r="Q15">
-        <v>1.625908245123437E-06</v>
+        <v>1.625908111627526E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -23108,16 +23108,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852922719241</v>
+        <v>0.6350852922719236</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350853299806942</v>
+        <v>0.6350853299806937</v>
       </c>
       <c r="Q16">
-        <v>1.184882371530773E-06</v>
+        <v>1.184882191866363E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -23170,16 +23170,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852922719243</v>
+        <v>0.6350852922719236</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350853299806942</v>
+        <v>0.6350853299806937</v>
       </c>
       <c r="Q17">
-        <v>1.184882348684868E-06</v>
+        <v>1.184882199296004E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350852874304703</v>
+        <v>0.6350852874304682</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853387517392</v>
+        <v>0.635085338751738</v>
       </c>
       <c r="Q18">
-        <v>1.846421270655837E-06</v>
+        <v>1.846421024542255E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -23294,16 +23294,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852852787128</v>
+        <v>0.6350852852787102</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853426499813</v>
+        <v>0.6350853426499797</v>
       </c>
       <c r="Q19">
-        <v>2.140438578349558E-06</v>
+        <v>2.140438299461768E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -23356,16 +23356,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350852836648946</v>
+        <v>0.6350852836648918</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853455736629</v>
+        <v>0.6350853455736613</v>
       </c>
       <c r="Q20">
-        <v>2.360951559450186E-06</v>
+        <v>2.360951281113208E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.635085283126955</v>
+        <v>0.6350852831269523</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350853465482232</v>
+        <v>0.6350853465482217</v>
       </c>
       <c r="Q21">
-        <v>2.434455870402535E-06</v>
+        <v>2.434455597848362E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0.01094540889714034</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646416</v>
+        <v>0.01094540889646415</v>
       </c>
       <c r="M2">
         <v>0.1094540870674506</v>
@@ -23750,7 +23750,7 @@
         <v>1.090352556980174</v>
       </c>
       <c r="Q5">
-        <v>29.52465667992313</v>
+        <v>29.52465667992314</v>
       </c>
       <c r="R5">
         <v>-90.55768083460144</v>
@@ -23939,10 +23939,10 @@
         <v>29.52465668684491</v>
       </c>
       <c r="R8">
-        <v>-90.5576808185627</v>
+        <v>-90.55768081856269</v>
       </c>
       <c r="S8">
-        <v>149.9221296357769</v>
+        <v>149.922129635777</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -24119,7 +24119,7 @@
         <v>1.086862152100594</v>
       </c>
       <c r="P11">
-        <v>1.09035255705797</v>
+        <v>1.090352557057971</v>
       </c>
       <c r="Q11">
         <v>29.52465668972898</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.096496877804267</v>
+        <v>1.096496877804266</v>
       </c>
       <c r="O12">
         <v>1.08686215226662</v>
@@ -24184,7 +24184,7 @@
         <v>1.090352556925258</v>
       </c>
       <c r="Q12">
-        <v>29.52465667300135</v>
+        <v>29.52465667300136</v>
       </c>
       <c r="R12">
         <v>-90.55768085064017</v>
@@ -24237,7 +24237,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.096496877804267</v>
+        <v>1.096496877804266</v>
       </c>
       <c r="O13">
         <v>1.08686215226662</v>
@@ -24246,7 +24246,7 @@
         <v>1.090352556925258</v>
       </c>
       <c r="Q13">
-        <v>29.52465667300135</v>
+        <v>29.52465667300136</v>
       </c>
       <c r="R13">
         <v>-90.55768085064017</v>
@@ -24435,7 +24435,7 @@
         <v>29.52465667242454</v>
       </c>
       <c r="R16">
-        <v>-90.55768085197674</v>
+        <v>-90.55768085197673</v>
       </c>
       <c r="S16">
         <v>149.922129617002</v>
@@ -24497,7 +24497,7 @@
         <v>29.52465667242454</v>
       </c>
       <c r="R17">
-        <v>-90.55768085197674</v>
+        <v>-90.55768085197673</v>
       </c>
       <c r="S17">
         <v>149.922129617002</v>
@@ -24677,10 +24677,10 @@
         <v>1.086862152180745</v>
       </c>
       <c r="P20">
-        <v>1.090352556993903</v>
+        <v>1.090352556993902</v>
       </c>
       <c r="Q20">
-        <v>29.52465668165357</v>
+        <v>29.52465668165358</v>
       </c>
       <c r="R20">
         <v>-90.55768083059175</v>
@@ -24852,19 +24852,19 @@
         <v>5.123517322003456</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219823</v>
+        <v>0.01094540887219822</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -24941,7 +24941,7 @@
         <v>1.090352556910543</v>
       </c>
       <c r="Q3">
-        <v>29.52465667158744</v>
+        <v>29.52465667158743</v>
       </c>
       <c r="R3">
         <v>-90.55768085359402</v>
@@ -25003,7 +25003,7 @@
         <v>1.090352556997493</v>
       </c>
       <c r="Q4">
-        <v>29.52465668254692</v>
+        <v>29.52465668254691</v>
       </c>
       <c r="R4">
         <v>-90.55768082819935</v>
@@ -25127,7 +25127,7 @@
         <v>1.090352557006645</v>
       </c>
       <c r="Q6">
-        <v>29.52465668370054</v>
+        <v>29.52465668370055</v>
       </c>
       <c r="R6">
         <v>-90.55768082552622</v>
@@ -25254,7 +25254,7 @@
         <v>29.52465668716143</v>
       </c>
       <c r="R8">
-        <v>-90.55768081750686</v>
+        <v>-90.55768081750685</v>
       </c>
       <c r="S8">
         <v>149.9221296365125</v>
@@ -25378,7 +25378,7 @@
         <v>29.52465668946869</v>
       </c>
       <c r="R10">
-        <v>-90.55768081216061</v>
+        <v>-90.5576808121606</v>
       </c>
       <c r="S10">
         <v>149.9221296395165</v>
@@ -25623,7 +25623,7 @@
         <v>1.090352556938001</v>
       </c>
       <c r="Q14">
-        <v>29.52465667504833</v>
+        <v>29.52465667504832</v>
       </c>
       <c r="R14">
         <v>-90.55768084557464</v>
@@ -25747,7 +25747,7 @@
         <v>1.090352556919695</v>
       </c>
       <c r="Q16">
-        <v>29.52465667274107</v>
+        <v>29.52465667274106</v>
       </c>
       <c r="R16">
         <v>-90.55768085092089</v>
@@ -26057,7 +26057,7 @@
         <v>1.090352556997493</v>
       </c>
       <c r="Q21">
-        <v>29.52465668254692</v>
+        <v>29.52465668254691</v>
       </c>
       <c r="R21">
         <v>-90.55768082819935</v>
@@ -26152,7 +26152,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46.18802315050826</v>
+        <v>46.18802315050825</v>
       </c>
       <c r="D2">
         <v>46.18802315729566</v>
@@ -26179,7 +26179,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -26194,7 +26194,7 @@
         <v>0.5773502691848033</v>
       </c>
       <c r="Q2">
-        <v>4.534686053639369E-09</v>
+        <v>4.534692335303123E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -26247,22 +26247,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393528</v>
+        <v>0.5773502543393525</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773502855594382</v>
+        <v>0.5773502855594386</v>
       </c>
       <c r="Q3">
-        <v>1.029154388094002E-06</v>
+        <v>1.029154426794652E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999992306479</v>
+        <v>-179.999999230648</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -26309,7 +26309,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502485168287</v>
+        <v>0.5773502485168285</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -26318,13 +26318,13 @@
         <v>0.5773503058619076</v>
       </c>
       <c r="Q4">
-        <v>3.022040124202027E-06</v>
+        <v>3.022040252783367E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999997266815</v>
+        <v>-179.9999997266816</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426238</v>
+        <v>0.5773502497426233</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877037</v>
+        <v>0.5773503015877036</v>
       </c>
       <c r="Q5">
-        <v>2.602485413228526E-06</v>
+        <v>2.602485399548209E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999996222532</v>
+        <v>-179.9999996222535</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -26433,22 +26433,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502479039324</v>
+        <v>0.577350247903932</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990097</v>
+        <v>0.5773503079990095</v>
       </c>
       <c r="Q6">
-        <v>3.231817800459791E-06</v>
+        <v>3.231817788639334E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999997788954</v>
+        <v>-179.9999997788956</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -26495,22 +26495,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.57735024637169</v>
+        <v>0.5773502463716892</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417647</v>
+        <v>0.5773503133417642</v>
       </c>
       <c r="Q7">
-        <v>3.756261475267204E-06</v>
+        <v>3.756261458431009E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999999094305</v>
+        <v>-179.9999999094308</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -26557,22 +26557,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652413</v>
+        <v>0.5773502460652408</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773503144103158</v>
+        <v>0.5773503144103153</v>
       </c>
       <c r="Q8">
-        <v>3.86115019073975E-06</v>
+        <v>3.861150181091241E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999999355375</v>
+        <v>-179.9999999355378</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -26619,22 +26619,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773502454523441</v>
+        <v>0.5773502454523435</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.577350316547418</v>
+        <v>0.5773503165474175</v>
       </c>
       <c r="Q9">
-        <v>4.070927677278774E-06</v>
+        <v>4.070927660442347E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999999877516</v>
+        <v>-179.9999999877519</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -26681,22 +26681,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394471</v>
+        <v>0.5773502448394464</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845201</v>
+        <v>0.5773503186845198</v>
       </c>
       <c r="Q10">
-        <v>4.280705161081672E-06</v>
+        <v>4.280705137883996E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999999600198</v>
+        <v>179.9999999600194</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -26743,22 +26743,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329987</v>
+        <v>0.577350244532998</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530713</v>
+        <v>0.5773503197530709</v>
       </c>
       <c r="Q11">
-        <v>4.385593882518282E-06</v>
+        <v>4.385593878403888E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999999339127</v>
+        <v>179.9999999339124</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -26805,22 +26805,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502534200069</v>
+        <v>0.5773502534200066</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650919</v>
       </c>
       <c r="Q12">
-        <v>1.343820607469392E-06</v>
+        <v>1.343820626028709E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.999999308969</v>
+        <v>-179.9999993089691</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -26867,22 +26867,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502534200069</v>
+        <v>0.5773502534200066</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773502887650916</v>
+        <v>0.5773502887650919</v>
       </c>
       <c r="Q13">
-        <v>1.343820590095815E-06</v>
+        <v>1.343820628796276E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.999999308969</v>
+        <v>-179.9999993089691</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.577350252500661</v>
+        <v>0.5773502525006604</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707444</v>
+        <v>0.5773502919707446</v>
       </c>
       <c r="Q14">
-        <v>1.658486730902359E-06</v>
+        <v>1.658486825969751E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -26991,22 +26991,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502518877638</v>
+        <v>0.5773502518877635</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773502941078464</v>
+        <v>0.5773502941078466</v>
       </c>
       <c r="Q15">
-        <v>1.868264266079072E-06</v>
+        <v>1.868264280455669E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9999994395041</v>
+        <v>-179.9999994395042</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -27053,22 +27053,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502537264555</v>
+        <v>0.5773502537264551</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965403</v>
+        <v>0.5773502876965408</v>
       </c>
       <c r="Q16">
-        <v>1.238931887251323E-06</v>
+        <v>1.238931899449578E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.9999992828619</v>
+        <v>-179.999999282862</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -27115,16 +27115,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502537264555</v>
+        <v>0.5773502537264551</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965406</v>
+        <v>0.577350287696541</v>
       </c>
       <c r="Q17">
-        <v>1.238931863516636E-06</v>
+        <v>1.238931902217146E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -27177,22 +27177,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502509684176</v>
+        <v>0.5773502509684172</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973134995</v>
+        <v>0.5773502973134996</v>
       </c>
       <c r="Q18">
-        <v>2.182930344835941E-06</v>
+        <v>2.182930473369492E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9999995178252</v>
+        <v>-179.9999995178253</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -27239,22 +27239,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426231</v>
+        <v>0.5773502497426227</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877036</v>
+        <v>0.5773503015877037</v>
       </c>
       <c r="Q19">
-        <v>2.602485241141871E-06</v>
+        <v>2.602485370017539E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999996222533</v>
+        <v>-179.9999996222534</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -27301,7 +27301,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232773</v>
+        <v>0.5773502488232769</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -27310,13 +27310,13 @@
         <v>0.5773503047933566</v>
       </c>
       <c r="Q20">
-        <v>2.917151399513529E-06</v>
+        <v>2.917151538087077E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999997005744</v>
+        <v>-179.9999997005745</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -27363,22 +27363,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168287</v>
+        <v>0.5773502485168284</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619077</v>
+        <v>0.5773503058619075</v>
       </c>
       <c r="Q21">
-        <v>3.022040124202027E-06</v>
+        <v>3.022040256414415E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999997266815</v>
+        <v>-179.9999997266816</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -27963,7 +27963,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46.18802315050826</v>
+        <v>46.18802315050825</v>
       </c>
       <c r="D2">
         <v>46.18802315729566</v>
@@ -27990,7 +27990,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -28005,7 +28005,7 @@
         <v>0.5773502691848033</v>
       </c>
       <c r="Q2">
-        <v>4.534686053639369E-09</v>
+        <v>4.534692335303123E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393528</v>
+        <v>0.5773502543393525</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773502855594382</v>
+        <v>0.5773502855594386</v>
       </c>
       <c r="Q3">
-        <v>1.029154388094002E-06</v>
+        <v>1.029154426794652E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999992306479</v>
+        <v>-179.999999230648</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -28120,7 +28120,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502485168287</v>
+        <v>0.5773502485168285</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -28129,13 +28129,13 @@
         <v>0.5773503058619076</v>
       </c>
       <c r="Q4">
-        <v>3.022040124202027E-06</v>
+        <v>3.022040252783367E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999997266815</v>
+        <v>-179.9999997266816</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -28182,22 +28182,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426238</v>
+        <v>0.5773502497426233</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877037</v>
+        <v>0.5773503015877036</v>
       </c>
       <c r="Q5">
-        <v>2.602485413228526E-06</v>
+        <v>2.602485399548209E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999996222532</v>
+        <v>-179.9999996222535</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -28244,22 +28244,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502479039324</v>
+        <v>0.577350247903932</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990097</v>
+        <v>0.5773503079990095</v>
       </c>
       <c r="Q6">
-        <v>3.231817800459791E-06</v>
+        <v>3.231817788639334E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999997788954</v>
+        <v>-179.9999997788956</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -28306,22 +28306,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.57735024637169</v>
+        <v>0.5773502463716892</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417647</v>
+        <v>0.5773503133417642</v>
       </c>
       <c r="Q7">
-        <v>3.756261475267204E-06</v>
+        <v>3.756261458431009E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999999094305</v>
+        <v>-179.9999999094308</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -28368,22 +28368,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652413</v>
+        <v>0.5773502460652408</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773503144103158</v>
+        <v>0.5773503144103153</v>
       </c>
       <c r="Q8">
-        <v>3.86115019073975E-06</v>
+        <v>3.861150181091241E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999999355375</v>
+        <v>-179.9999999355378</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -28430,22 +28430,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773502454523441</v>
+        <v>0.5773502454523435</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.577350316547418</v>
+        <v>0.5773503165474175</v>
       </c>
       <c r="Q9">
-        <v>4.070927677278774E-06</v>
+        <v>4.070927660442347E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999999877516</v>
+        <v>-179.9999999877519</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -28492,22 +28492,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394471</v>
+        <v>0.5773502448394464</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845201</v>
+        <v>0.5773503186845198</v>
       </c>
       <c r="Q10">
-        <v>4.280705161081672E-06</v>
+        <v>4.280705137883996E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999999600198</v>
+        <v>179.9999999600194</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -28554,22 +28554,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329987</v>
+        <v>0.577350244532998</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530713</v>
+        <v>0.5773503197530709</v>
       </c>
       <c r="Q11">
-        <v>4.385593882518282E-06</v>
+        <v>4.385593878403888E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999999339127</v>
+        <v>179.9999999339124</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -28616,22 +28616,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502534200069</v>
+        <v>0.5773502534200066</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650919</v>
       </c>
       <c r="Q12">
-        <v>1.343820607469392E-06</v>
+        <v>1.343820626028709E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.999999308969</v>
+        <v>-179.9999993089691</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -28678,22 +28678,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502534200069</v>
+        <v>0.5773502534200066</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773502887650916</v>
+        <v>0.5773502887650919</v>
       </c>
       <c r="Q13">
-        <v>1.343820590095815E-06</v>
+        <v>1.343820628796276E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.999999308969</v>
+        <v>-179.9999993089691</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -28740,16 +28740,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.577350252500661</v>
+        <v>0.5773502525006604</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707444</v>
+        <v>0.5773502919707446</v>
       </c>
       <c r="Q14">
-        <v>1.658486730902359E-06</v>
+        <v>1.658486825969751E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -28802,22 +28802,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502518877638</v>
+        <v>0.5773502518877635</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773502941078464</v>
+        <v>0.5773502941078466</v>
       </c>
       <c r="Q15">
-        <v>1.868264266079072E-06</v>
+        <v>1.868264280455669E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9999994395041</v>
+        <v>-179.9999994395042</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -28864,22 +28864,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502537264555</v>
+        <v>0.5773502537264551</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965403</v>
+        <v>0.5773502876965408</v>
       </c>
       <c r="Q16">
-        <v>1.238931887251323E-06</v>
+        <v>1.238931899449578E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.9999992828619</v>
+        <v>-179.999999282862</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -28926,16 +28926,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502537264555</v>
+        <v>0.5773502537264551</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965406</v>
+        <v>0.577350287696541</v>
       </c>
       <c r="Q17">
-        <v>1.238931863516636E-06</v>
+        <v>1.238931902217146E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -28988,22 +28988,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502509684176</v>
+        <v>0.5773502509684172</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973134995</v>
+        <v>0.5773502973134996</v>
       </c>
       <c r="Q18">
-        <v>2.182930344835941E-06</v>
+        <v>2.182930473369492E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9999995178252</v>
+        <v>-179.9999995178253</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -29050,22 +29050,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426231</v>
+        <v>0.5773502497426227</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877036</v>
+        <v>0.5773503015877037</v>
       </c>
       <c r="Q19">
-        <v>2.602485241141871E-06</v>
+        <v>2.602485370017539E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999996222533</v>
+        <v>-179.9999996222534</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -29112,7 +29112,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232773</v>
+        <v>0.5773502488232769</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -29121,13 +29121,13 @@
         <v>0.5773503047933566</v>
       </c>
       <c r="Q20">
-        <v>2.917151399513529E-06</v>
+        <v>2.917151538087077E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999997005744</v>
+        <v>-179.9999997005745</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -29174,22 +29174,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168287</v>
+        <v>0.5773502485168284</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619077</v>
+        <v>0.5773503058619075</v>
       </c>
       <c r="Q21">
-        <v>3.022040124202027E-06</v>
+        <v>3.022040256414415E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999997266815</v>
+        <v>-179.9999997266816</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -29305,7 +29305,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -29379,7 +29379,7 @@
         <v>0.9864427565220329</v>
       </c>
       <c r="P3">
-        <v>0.9900480147309935</v>
+        <v>0.9900480147309934</v>
       </c>
       <c r="Q3">
         <v>29.4607573010759</v>
@@ -29624,13 +29624,13 @@
         <v>0.9963798866986365</v>
       </c>
       <c r="O7">
-        <v>0.986442756590459</v>
+        <v>0.9864427565904591</v>
       </c>
       <c r="P7">
         <v>0.9900480150177869</v>
       </c>
       <c r="Q7">
-        <v>29.46075732700074</v>
+        <v>29.46075732700073</v>
       </c>
       <c r="R7">
         <v>-90.63269603684482</v>
@@ -29686,10 +29686,10 @@
         <v>0.9963798866904159</v>
       </c>
       <c r="O8">
-        <v>0.9864427565930908</v>
+        <v>0.986442756593091</v>
       </c>
       <c r="P8">
-        <v>0.9900480150288175</v>
+        <v>0.9900480150288177</v>
       </c>
       <c r="Q8">
         <v>29.46075732799785</v>
@@ -29869,19 +29869,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9963798866493128</v>
+        <v>0.9963798866493127</v>
       </c>
       <c r="O11">
-        <v>0.9864427566062497</v>
+        <v>0.9864427566062498</v>
       </c>
       <c r="P11">
-        <v>0.9900480150839701</v>
+        <v>0.9900480150839702</v>
       </c>
       <c r="Q11">
         <v>29.46075733298339</v>
       </c>
       <c r="R11">
-        <v>-90.63269602529788</v>
+        <v>-90.63269602529786</v>
       </c>
       <c r="S11">
         <v>149.9123041061426</v>
@@ -29931,7 +29931,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9963798868877107</v>
+        <v>0.9963798868877104</v>
       </c>
       <c r="O12">
         <v>0.9864427565299282</v>
@@ -29943,7 +29943,7 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R12">
-        <v>-90.63269608110814</v>
+        <v>-90.63269608110812</v>
       </c>
       <c r="S12">
         <v>149.912304079789</v>
@@ -30005,7 +30005,7 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R13">
-        <v>-90.63269608110814</v>
+        <v>-90.63269608110812</v>
       </c>
       <c r="S13">
         <v>149.912304079789</v>
@@ -30117,7 +30117,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9963798868466076</v>
+        <v>0.9963798868466075</v>
       </c>
       <c r="O15">
         <v>0.9864427565430871</v>
@@ -30303,7 +30303,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9963798868219458</v>
+        <v>0.9963798868219457</v>
       </c>
       <c r="O18">
         <v>0.9864427565509826</v>
@@ -30315,7 +30315,7 @@
         <v>29.4607573120441</v>
       </c>
       <c r="R18">
-        <v>-90.63269606571221</v>
+        <v>-90.6326960657122</v>
       </c>
       <c r="S18">
         <v>149.912304087059</v>
@@ -30368,7 +30368,7 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P19">
         <v>0.9900480148964513</v>
@@ -30620,7 +30620,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -30694,7 +30694,7 @@
         <v>0.9864427565220329</v>
       </c>
       <c r="P3">
-        <v>0.9900480147309935</v>
+        <v>0.9900480147309934</v>
       </c>
       <c r="Q3">
         <v>29.4607573010759</v>
@@ -30939,13 +30939,13 @@
         <v>0.9963798866986365</v>
       </c>
       <c r="O7">
-        <v>0.986442756590459</v>
+        <v>0.9864427565904591</v>
       </c>
       <c r="P7">
         <v>0.9900480150177869</v>
       </c>
       <c r="Q7">
-        <v>29.46075732700074</v>
+        <v>29.46075732700073</v>
       </c>
       <c r="R7">
         <v>-90.63269603684482</v>
@@ -31001,10 +31001,10 @@
         <v>0.9963798866904159</v>
       </c>
       <c r="O8">
-        <v>0.9864427565930908</v>
+        <v>0.986442756593091</v>
       </c>
       <c r="P8">
-        <v>0.9900480150288175</v>
+        <v>0.9900480150288177</v>
       </c>
       <c r="Q8">
         <v>29.46075732799785</v>
@@ -31184,19 +31184,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9963798866493128</v>
+        <v>0.9963798866493127</v>
       </c>
       <c r="O11">
-        <v>0.9864427566062497</v>
+        <v>0.9864427566062498</v>
       </c>
       <c r="P11">
-        <v>0.9900480150839701</v>
+        <v>0.9900480150839702</v>
       </c>
       <c r="Q11">
         <v>29.46075733298339</v>
       </c>
       <c r="R11">
-        <v>-90.63269602529788</v>
+        <v>-90.63269602529786</v>
       </c>
       <c r="S11">
         <v>149.9123041061426</v>
@@ -31246,7 +31246,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9963798868877107</v>
+        <v>0.9963798868877104</v>
       </c>
       <c r="O12">
         <v>0.9864427565299282</v>
@@ -31258,7 +31258,7 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R12">
-        <v>-90.63269608110814</v>
+        <v>-90.63269608110812</v>
       </c>
       <c r="S12">
         <v>149.912304079789</v>
@@ -31320,7 +31320,7 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R13">
-        <v>-90.63269608110814</v>
+        <v>-90.63269608110812</v>
       </c>
       <c r="S13">
         <v>149.912304079789</v>
@@ -31432,7 +31432,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9963798868466076</v>
+        <v>0.9963798868466075</v>
       </c>
       <c r="O15">
         <v>0.9864427565430871</v>
@@ -31618,7 +31618,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9963798868219458</v>
+        <v>0.9963798868219457</v>
       </c>
       <c r="O18">
         <v>0.9864427565509826</v>
@@ -31630,7 +31630,7 @@
         <v>29.4607573120441</v>
       </c>
       <c r="R18">
-        <v>-90.63269606571221</v>
+        <v>-90.6326960657122</v>
       </c>
       <c r="S18">
         <v>149.912304087059</v>
@@ -31683,7 +31683,7 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P19">
         <v>0.9900480148964513</v>
@@ -34409,10 +34409,10 @@
         <v>0.01094540889714034</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646416</v>
+        <v>0.01094540889646415</v>
       </c>
       <c r="M2">
         <v>0.1094540870674506</v>
@@ -34427,7 +34427,7 @@
         <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.694474697036798E-11</v>
+        <v>-8.694073885888996E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -34477,22 +34477,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279482343812</v>
+        <v>0.9526279482343817</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279813293721</v>
+        <v>0.9526279813293728</v>
       </c>
       <c r="Q3">
-        <v>8.313211763937887E-08</v>
+        <v>8.313209303823658E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999168589</v>
+        <v>179.999999916859</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -34536,22 +34536,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279338656302</v>
+        <v>0.9526279338656296</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.952627995698121</v>
+        <v>0.9526279956981223</v>
       </c>
       <c r="Q4">
-        <v>5.152361397134443E-07</v>
+        <v>5.152359907278048E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999994847549</v>
+        <v>179.999999484755</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -34601,16 +34601,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.952627992673121</v>
+        <v>0.9526279926731225</v>
       </c>
       <c r="Q5">
-        <v>4.242667625962477E-07</v>
+        <v>4.24266736070751E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999995757242</v>
+        <v>179.9999995757243</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -34654,22 +34654,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279323531288</v>
+        <v>0.9526279323531286</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279972106207</v>
+        <v>0.9526279972106225</v>
       </c>
       <c r="Q6">
-        <v>5.607206374823895E-07</v>
+        <v>5.607205898895768E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999994392703</v>
+        <v>179.9999994392705</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -34713,22 +34713,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9526279285718784</v>
+        <v>0.9526279285718781</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280009918705</v>
+        <v>0.9526280009918725</v>
       </c>
       <c r="Q7">
-        <v>6.744321692522938E-07</v>
+        <v>6.744321337043538E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999993255587</v>
+        <v>179.9999993255589</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -34772,22 +34772,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279278156281</v>
+        <v>0.9526279278156279</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280017481205</v>
+        <v>0.9526280017481225</v>
       </c>
       <c r="Q8">
-        <v>6.971744703295571E-07</v>
+        <v>6.971744385093323E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999993028164</v>
+        <v>179.9999993028166</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -34831,22 +34831,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279263031278</v>
+        <v>0.9526279263031273</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280032606201</v>
+        <v>0.9526280032606224</v>
       </c>
       <c r="Q9">
-        <v>7.426590961172729E-07</v>
+        <v>7.426590644244921E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999992573318</v>
+        <v>179.999999257332</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -34890,22 +34890,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279247906276</v>
+        <v>0.9526279247906272</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280047731202</v>
+        <v>0.9526280047731223</v>
       </c>
       <c r="Q10">
-        <v>7.88143710059368E-07</v>
+        <v>7.881436783665512E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999992118472</v>
+        <v>179.9999992118473</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -34949,22 +34949,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279240343773</v>
+        <v>0.952627924034377</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280055293703</v>
+        <v>0.9526280055293724</v>
       </c>
       <c r="Q11">
-        <v>8.108860183946999E-07</v>
+        <v>8.108859867018702E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999991891049</v>
+        <v>179.999999189105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279835981224</v>
+        <v>0.952627983598123</v>
       </c>
       <c r="Q12">
-        <v>1.513590267718505E-07</v>
+        <v>1.513590039059673E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.999999848632</v>
+        <v>179.9999998486321</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -35067,22 +35067,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9526279459656308</v>
+        <v>0.9526279459656311</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279835981224</v>
+        <v>0.952627983598123</v>
       </c>
       <c r="Q13">
-        <v>1.513590271311658E-07</v>
+        <v>1.513590025299752E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.999999848632</v>
+        <v>179.9999998486321</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -35126,22 +35126,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9526279436968809</v>
+        <v>0.952627943696881</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279858668718</v>
+        <v>0.9526279858668727</v>
       </c>
       <c r="Q14">
-        <v>2.195860097671116E-07</v>
+        <v>2.195859453294312E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.999999780405</v>
+        <v>179.9999997804051</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -35185,22 +35185,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9526279421843802</v>
+        <v>0.9526279421843803</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9526279873793716</v>
+        <v>0.9526279873793726</v>
       </c>
       <c r="Q15">
-        <v>2.650705898138828E-07</v>
+        <v>2.650705665299466E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999997349204</v>
+        <v>179.9999997349205</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -35250,16 +35250,16 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279828418723</v>
+        <v>0.9526279828418729</v>
       </c>
       <c r="Q16">
-        <v>1.286167194836587E-07</v>
+        <v>1.286166966177882E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>179.9999998713743</v>
+        <v>179.9999998713744</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -35303,22 +35303,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.952627946721881</v>
+        <v>0.9526279467218812</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279828418723</v>
+        <v>0.9526279828418729</v>
       </c>
       <c r="Q17">
-        <v>1.286167159877562E-07</v>
+        <v>1.286166952417962E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>179.9999998713743</v>
+        <v>179.9999998713744</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -35362,22 +35362,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279399156304</v>
+        <v>0.9526279399156303</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279896481213</v>
+        <v>0.9526279896481225</v>
       </c>
       <c r="Q18">
-        <v>3.332976061467322E-07</v>
+        <v>3.33297492927239E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999996666934</v>
+        <v>179.9999996666936</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -35421,22 +35421,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279368906304</v>
+        <v>0.9526279368906301</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279926731211</v>
+        <v>0.9526279926731225</v>
       </c>
       <c r="Q19">
-        <v>4.242668789590299E-07</v>
+        <v>4.242667311686899E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999995757241</v>
+        <v>179.9999995757243</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -35480,22 +35480,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279346218803</v>
+        <v>0.9526279346218797</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.952627994941871</v>
+        <v>0.9526279949418723</v>
       </c>
       <c r="Q20">
-        <v>4.924938336180649E-07</v>
+        <v>4.924936818098623E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.9999995074972</v>
+        <v>179.9999995074973</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -35539,22 +35539,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279338656302</v>
+        <v>0.9526279338656296</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.952627995698121</v>
+        <v>0.9526279956981223</v>
       </c>
       <c r="Q21">
-        <v>5.152361397134443E-07</v>
+        <v>5.152359917604466E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999994847549</v>
+        <v>179.999999484755</v>
       </c>
     </row>
   </sheetData>
